--- a/JupyterNotebooks/AvgHW/ShearF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.001117322072471</v>
+      </c>
+      <c r="D3">
         <v>0.9997206722218996</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.001117322072471</v>
-      </c>
-      <c r="E3">
-        <v>0.9997206722218996</v>
       </c>
       <c r="F3">
         <v>0.9997206722218996</v>
       </c>
       <c r="G3">
+        <v>1.000614528104837</v>
+      </c>
+      <c r="H3">
         <v>0.9992551171206908</v>
-      </c>
-      <c r="H3">
-        <v>1.000614528104837</v>
       </c>
       <c r="I3">
         <v>0.9997206722218996</v>
       </c>
       <c r="J3">
-        <v>1.001117322072471</v>
+        <v>0.9997206722218996</v>
       </c>
       <c r="K3">
         <v>0.9997206722218996</v>
@@ -788,7 +680,7 @@
         <v>1.000024830660616</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.002156976843321</v>
+      </c>
+      <c r="D4">
         <v>0.9994607575629819</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.002156976843321</v>
-      </c>
-      <c r="E4">
-        <v>0.9994607575629819</v>
       </c>
       <c r="F4">
         <v>0.9994607575629819</v>
       </c>
       <c r="G4">
+        <v>1.001186337361323</v>
+      </c>
+      <c r="H4">
         <v>0.9985620150176987</v>
-      </c>
-      <c r="H4">
-        <v>1.001186337361323</v>
       </c>
       <c r="I4">
         <v>0.9994607575629819</v>
       </c>
       <c r="J4">
-        <v>1.002156976843321</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="K4">
         <v>0.9994607575629819</v>
@@ -850,7 +742,7 @@
         <v>1.000047933651881</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.004133579339035</v>
+      </c>
+      <c r="D5">
         <v>0.998966601273922</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.004133579339035</v>
-      </c>
-      <c r="E5">
-        <v>0.998966601273922</v>
       </c>
       <c r="F5">
         <v>0.998966601273922</v>
       </c>
       <c r="G5">
+        <v>1.002273469607788</v>
+      </c>
+      <c r="H5">
         <v>0.9972442809000512</v>
-      </c>
-      <c r="H5">
-        <v>1.002273469607788</v>
       </c>
       <c r="I5">
         <v>0.998966601273922</v>
       </c>
       <c r="J5">
-        <v>1.004133579339035</v>
+        <v>0.998966601273922</v>
       </c>
       <c r="K5">
         <v>0.998966601273922</v>
@@ -912,7 +804,7 @@
         <v>1.00009185561144</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.006062646215451</v>
+      </c>
+      <c r="D6">
         <v>0.9984843456877495</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.006062646215451</v>
-      </c>
-      <c r="E6">
-        <v>0.9984843456877495</v>
       </c>
       <c r="F6">
         <v>0.9984843456877495</v>
       </c>
       <c r="G6">
+        <v>1.003334452399023</v>
+      </c>
+      <c r="H6">
         <v>0.9959582380292011</v>
-      </c>
-      <c r="H6">
-        <v>1.003334452399023</v>
       </c>
       <c r="I6">
         <v>0.9984843456877495</v>
       </c>
       <c r="J6">
-        <v>1.006062646215451</v>
+        <v>0.9984843456877495</v>
       </c>
       <c r="K6">
         <v>0.9984843456877495</v>
@@ -974,7 +866,7 @@
         <v>1.000134728951154</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000073226437473</v>
+      </c>
+      <c r="D7">
         <v>0.9999816962823789</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.000073226437473</v>
-      </c>
-      <c r="E7">
-        <v>0.9999816962823789</v>
       </c>
       <c r="F7">
         <v>0.9999816962823789</v>
       </c>
       <c r="G7">
+        <v>1.000040276042921</v>
+      </c>
+      <c r="H7">
         <v>0.999951180495866</v>
-      </c>
-      <c r="H7">
-        <v>1.000040276042921</v>
       </c>
       <c r="I7">
         <v>0.9999816962823789</v>
       </c>
       <c r="J7">
-        <v>1.000073226437473</v>
+        <v>0.9999816962823789</v>
       </c>
       <c r="K7">
         <v>0.9999816962823789</v>
@@ -1036,7 +928,7 @@
         <v>1.000001628637233</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,34 +936,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999573850403615</v>
+        <v>1.000170471063384</v>
       </c>
       <c r="D8">
-        <v>1.000170471063385</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="E8">
-        <v>0.9999573850403615</v>
+        <v>1.000170471063384</v>
       </c>
       <c r="F8">
-        <v>0.9999573850403615</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="G8">
+        <v>1.000093760686411</v>
+      </c>
+      <c r="H8">
         <v>0.9998863506687469</v>
       </c>
-      <c r="H8">
-        <v>1.000093760686411</v>
-      </c>
       <c r="I8">
-        <v>0.9999573850403615</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="J8">
-        <v>1.000170471063385</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="K8">
-        <v>0.9999573850403615</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="L8">
-        <v>0.9999573850403615</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="M8">
         <v>1.000063928051873</v>
@@ -1098,7 +990,7 @@
         <v>1.000003789589938</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000227067333073</v>
+      </c>
+      <c r="D9">
         <v>0.9999432361174779</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.000227067333073</v>
-      </c>
-      <c r="E9">
-        <v>0.9999432361174779</v>
       </c>
       <c r="F9">
         <v>0.9999432361174779</v>
       </c>
       <c r="G9">
-        <v>0.999848620260309</v>
+        <v>1.000124888259217</v>
       </c>
       <c r="H9">
-        <v>1.000124888259217</v>
+        <v>0.9998486202603087</v>
       </c>
       <c r="I9">
         <v>0.9999432361174779</v>
       </c>
       <c r="J9">
-        <v>1.000227067333073</v>
+        <v>0.9999432361174779</v>
       </c>
       <c r="K9">
         <v>0.9999432361174779</v>
@@ -1160,7 +1052,7 @@
         <v>1.000005047367506</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000500983649405</v>
+      </c>
+      <c r="D10">
         <v>0.9998747569432196</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.000500983649405</v>
-      </c>
-      <c r="E10">
-        <v>0.9998747569432196</v>
       </c>
       <c r="F10">
         <v>0.9998747569432196</v>
       </c>
       <c r="G10">
+        <v>1.000275541926569</v>
+      </c>
+      <c r="H10">
         <v>0.9996660091716167</v>
-      </c>
-      <c r="H10">
-        <v>1.000275541926569</v>
       </c>
       <c r="I10">
         <v>0.9998747569432196</v>
       </c>
       <c r="J10">
-        <v>1.000500983649405</v>
+        <v>0.9998747569432196</v>
       </c>
       <c r="K10">
         <v>0.9998747569432196</v>
@@ -1222,7 +1114,7 @@
         <v>1.000011134262875</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000797576076363</v>
+      </c>
+      <c r="D11">
         <v>0.9998006093776571</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.000797576076363</v>
-      </c>
-      <c r="E11">
-        <v>0.9998006093776571</v>
       </c>
       <c r="F11">
         <v>0.9998006093776571</v>
       </c>
       <c r="G11">
+        <v>1.000438668775437</v>
+      </c>
+      <c r="H11">
         <v>0.9994682814220481</v>
-      </c>
-      <c r="H11">
-        <v>1.000438668775437</v>
       </c>
       <c r="I11">
         <v>0.9998006093776571</v>
       </c>
       <c r="J11">
-        <v>1.000797576076363</v>
+        <v>0.9998006093776571</v>
       </c>
       <c r="K11">
         <v>0.9998006093776571</v>
@@ -1284,7 +1176,7 @@
         <v>1.00001772573447</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.994632711958307</v>
+      </c>
+      <c r="D12">
         <v>1.00134182536628</v>
       </c>
-      <c r="D12">
-        <v>0.9946327119583072</v>
-      </c>
       <c r="E12">
-        <v>1.00134182536628</v>
+        <v>0.994632711958307</v>
       </c>
       <c r="F12">
         <v>1.00134182536628</v>
       </c>
       <c r="G12">
+        <v>0.9970479963749214</v>
+      </c>
+      <c r="H12">
         <v>1.0035781878889</v>
-      </c>
-      <c r="H12">
-        <v>0.9970479963749214</v>
       </c>
       <c r="I12">
         <v>1.00134182536628</v>
       </c>
       <c r="J12">
-        <v>0.9946327119583072</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="K12">
         <v>1.00134182536628</v>
@@ -1322,31 +1214,31 @@
         <v>1.00134182536628</v>
       </c>
       <c r="M12">
-        <v>0.9979872686622936</v>
+        <v>0.9979872686622937</v>
       </c>
       <c r="N12">
-        <v>0.9979872686622936</v>
+        <v>0.9979872686622937</v>
       </c>
       <c r="O12">
-        <v>0.9976741778998361</v>
+        <v>0.9976741778998363</v>
       </c>
       <c r="P12">
-        <v>0.9991054542302891</v>
+        <v>0.9991054542302892</v>
       </c>
       <c r="Q12">
-        <v>0.9991054542302891</v>
+        <v>0.9991054542302892</v>
       </c>
       <c r="R12">
-        <v>0.9996645470142869</v>
+        <v>0.999664547014287</v>
       </c>
       <c r="S12">
-        <v>0.9996645470142869</v>
+        <v>0.999664547014287</v>
       </c>
       <c r="T12">
-        <v>0.9998807287201615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9998807287201616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9986226192190829</v>
+      </c>
+      <c r="D13">
         <v>1.000344344972705</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.9986226192190829</v>
-      </c>
-      <c r="E13">
-        <v>1.000344344972705</v>
       </c>
       <c r="F13">
         <v>1.000344344972705</v>
       </c>
       <c r="G13">
+        <v>0.9992424376947757</v>
+      </c>
+      <c r="H13">
         <v>1.000918247480899</v>
-      </c>
-      <c r="H13">
-        <v>0.9992424376947757</v>
       </c>
       <c r="I13">
         <v>1.000344344972705</v>
       </c>
       <c r="J13">
-        <v>0.9986226192190829</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="K13">
         <v>1.000344344972705</v>
@@ -1408,7 +1300,7 @@
         <v>0.9999693898854787</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="D14">
         <v>1.003164008499625</v>
       </c>
-      <c r="D14">
-        <v>0.9873439627911564</v>
-      </c>
       <c r="E14">
-        <v>1.003164008499625</v>
+        <v>0.9873439627911561</v>
       </c>
       <c r="F14">
         <v>1.003164008499625</v>
       </c>
       <c r="G14">
+        <v>0.993039178010384</v>
+      </c>
+      <c r="H14">
         <v>1.00843735622691</v>
-      </c>
-      <c r="H14">
-        <v>0.993039178010384</v>
       </c>
       <c r="I14">
         <v>1.003164008499625</v>
       </c>
       <c r="J14">
-        <v>0.9873439627911564</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="K14">
         <v>1.003164008499625</v>
@@ -1446,10 +1338,10 @@
         <v>1.003164008499625</v>
       </c>
       <c r="M14">
-        <v>0.9952539856453909</v>
+        <v>0.9952539856453908</v>
       </c>
       <c r="N14">
-        <v>0.9952539856453909</v>
+        <v>0.9952539856453908</v>
       </c>
       <c r="O14">
         <v>0.9945157164337219</v>
@@ -1470,7 +1362,7 @@
         <v>0.9997187537545544</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9967239804633086</v>
+      </c>
+      <c r="D15">
         <v>1.000819011752151</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.9967239804633086</v>
-      </c>
-      <c r="E15">
-        <v>1.000819011752151</v>
       </c>
       <c r="F15">
         <v>1.000819011752151</v>
       </c>
       <c r="G15">
+        <v>0.9981981847890377</v>
+      </c>
+      <c r="H15">
         <v>1.002184013118497</v>
-      </c>
-      <c r="H15">
-        <v>0.9981981847890377</v>
       </c>
       <c r="I15">
         <v>1.000819011752151</v>
       </c>
       <c r="J15">
-        <v>0.9967239804633086</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="K15">
         <v>1.000819011752151</v>
@@ -1532,7 +1424,7 @@
         <v>0.9999272022712159</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999988494186139</v>
+        <v>1.021789393710995</v>
       </c>
       <c r="D16">
-        <v>1.000004613765174</v>
+        <v>0.9945526531001551</v>
       </c>
       <c r="E16">
-        <v>0.9999988494186139</v>
+        <v>1.021789393710995</v>
       </c>
       <c r="F16">
-        <v>0.9999988494186139</v>
+        <v>0.9945526531001551</v>
       </c>
       <c r="G16">
-        <v>0.9999969221753151</v>
+        <v>1.01198416106469</v>
       </c>
       <c r="H16">
-        <v>1.000002539075317</v>
+        <v>0.9854737410002251</v>
       </c>
       <c r="I16">
-        <v>0.9999988494186139</v>
+        <v>0.9945526531001551</v>
       </c>
       <c r="J16">
-        <v>1.000004613765174</v>
+        <v>0.9945526531001551</v>
       </c>
       <c r="K16">
-        <v>0.9999988494186139</v>
+        <v>0.9945526531001551</v>
       </c>
       <c r="L16">
-        <v>0.9999988494186139</v>
+        <v>0.9945526531001551</v>
       </c>
       <c r="M16">
-        <v>1.000001731591894</v>
+        <v>1.008171023405575</v>
       </c>
       <c r="N16">
-        <v>1.000001731591894</v>
+        <v>1.008171023405575</v>
       </c>
       <c r="O16">
-        <v>1.000002000753035</v>
+        <v>1.009442069291947</v>
       </c>
       <c r="P16">
-        <v>1.000000770867467</v>
+        <v>1.003631566637101</v>
       </c>
       <c r="Q16">
-        <v>1.000000770867467</v>
+        <v>1.003631566637101</v>
       </c>
       <c r="R16">
-        <v>1.000000290505254</v>
+        <v>1.001361838252865</v>
       </c>
       <c r="S16">
-        <v>1.000000290505254</v>
+        <v>1.001361838252865</v>
       </c>
       <c r="T16">
-        <v>1.000000103878608</v>
+        <v>1.000484209179396</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999755750148041</v>
+        <v>1.017817195041901</v>
       </c>
       <c r="D17">
-        <v>1.000097711943654</v>
+        <v>0.9955457030499659</v>
       </c>
       <c r="E17">
-        <v>0.9999755750148041</v>
+        <v>1.017817195041901</v>
       </c>
       <c r="F17">
-        <v>0.9999755750148041</v>
+        <v>0.9955457030499659</v>
       </c>
       <c r="G17">
-        <v>0.999934856613431</v>
+        <v>1.009799453505664</v>
       </c>
       <c r="H17">
-        <v>1.000053742705463</v>
+        <v>0.9881218721282039</v>
       </c>
       <c r="I17">
-        <v>0.9999755750148041</v>
+        <v>0.9955457030499659</v>
       </c>
       <c r="J17">
-        <v>1.000097711943654</v>
+        <v>0.9955457030499659</v>
       </c>
       <c r="K17">
-        <v>0.9999755750148041</v>
+        <v>0.9955457030499659</v>
       </c>
       <c r="L17">
-        <v>0.9999755750148041</v>
+        <v>0.9955457030499659</v>
       </c>
       <c r="M17">
-        <v>1.000036643479229</v>
+        <v>1.006681449045933</v>
       </c>
       <c r="N17">
-        <v>1.000036643479229</v>
+        <v>1.006681449045933</v>
       </c>
       <c r="O17">
-        <v>1.000042343221307</v>
+        <v>1.007720783865843</v>
       </c>
       <c r="P17">
-        <v>1.000016287324421</v>
+        <v>1.002969533713944</v>
       </c>
       <c r="Q17">
-        <v>1.000016287324421</v>
+        <v>1.002969533713944</v>
       </c>
       <c r="R17">
-        <v>1.000006109247016</v>
+        <v>1.001113576047949</v>
       </c>
       <c r="S17">
-        <v>1.000006109247016</v>
+        <v>1.001113576047949</v>
       </c>
       <c r="T17">
-        <v>1.000002172717827</v>
+        <v>1.000395938304278</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999140000561568</v>
+        <v>1.009805322899433</v>
       </c>
       <c r="D18">
-        <v>1.000344015491539</v>
+        <v>0.997548670570045</v>
       </c>
       <c r="E18">
-        <v>0.9999140000561568</v>
+        <v>1.009805322899433</v>
       </c>
       <c r="F18">
-        <v>0.9999140000561568</v>
+        <v>0.997548670570045</v>
       </c>
       <c r="G18">
-        <v>0.9997706538884162</v>
+        <v>1.005392927926041</v>
       </c>
       <c r="H18">
-        <v>1.000189207870203</v>
+        <v>0.9934631162054085</v>
       </c>
       <c r="I18">
-        <v>0.9999140000561568</v>
+        <v>0.997548670570045</v>
       </c>
       <c r="J18">
-        <v>1.000344015491539</v>
+        <v>0.997548670570045</v>
       </c>
       <c r="K18">
-        <v>0.9999140000561568</v>
+        <v>0.997548670570045</v>
       </c>
       <c r="L18">
-        <v>0.9999140000561568</v>
+        <v>0.997548670570045</v>
       </c>
       <c r="M18">
-        <v>1.000129007773848</v>
+        <v>1.003676996734739</v>
       </c>
       <c r="N18">
-        <v>1.000129007773848</v>
+        <v>1.003676996734739</v>
       </c>
       <c r="O18">
-        <v>1.000149074472633</v>
+        <v>1.004248973798506</v>
       </c>
       <c r="P18">
-        <v>1.000057338534618</v>
+        <v>1.001634221346508</v>
       </c>
       <c r="Q18">
-        <v>1.000057338534618</v>
+        <v>1.001634221346508</v>
       </c>
       <c r="R18">
-        <v>1.000021503915002</v>
+        <v>1.000612833652392</v>
       </c>
       <c r="S18">
-        <v>1.000021503915002</v>
+        <v>1.000612833652392</v>
       </c>
       <c r="T18">
-        <v>1.000007646236438</v>
+        <v>1.000217896456836</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.010690044486036</v>
+      </c>
+      <c r="D19">
+        <v>0.9973274899447397</v>
+      </c>
+      <c r="E19">
+        <v>1.010690044486036</v>
+      </c>
+      <c r="F19">
+        <v>0.9973274899447397</v>
+      </c>
+      <c r="G19">
+        <v>1.005879519976536</v>
+      </c>
+      <c r="H19">
+        <v>0.9928732989869715</v>
+      </c>
+      <c r="I19">
+        <v>0.9973274899447397</v>
+      </c>
+      <c r="J19">
+        <v>0.9973274899447397</v>
+      </c>
+      <c r="K19">
+        <v>0.9973274899447397</v>
+      </c>
+      <c r="L19">
+        <v>0.9973274899447397</v>
+      </c>
+      <c r="M19">
+        <v>1.004008767215388</v>
+      </c>
+      <c r="N19">
+        <v>1.004008767215388</v>
+      </c>
+      <c r="O19">
+        <v>1.004632351469104</v>
+      </c>
+      <c r="P19">
+        <v>1.001781674791838</v>
+      </c>
+      <c r="Q19">
+        <v>1.001781674791838</v>
+      </c>
+      <c r="R19">
+        <v>1.000668128580064</v>
+      </c>
+      <c r="S19">
+        <v>1.000668128580064</v>
+      </c>
+      <c r="T19">
+        <v>1.000237555547294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000004613765174</v>
+      </c>
+      <c r="D20">
+        <v>0.9999988494186139</v>
+      </c>
+      <c r="E20">
+        <v>1.000004613765174</v>
+      </c>
+      <c r="F20">
+        <v>0.9999988494186139</v>
+      </c>
+      <c r="G20">
+        <v>1.000002539075317</v>
+      </c>
+      <c r="H20">
+        <v>0.9999969221753151</v>
+      </c>
+      <c r="I20">
+        <v>0.9999988494186139</v>
+      </c>
+      <c r="J20">
+        <v>0.9999988494186139</v>
+      </c>
+      <c r="K20">
+        <v>0.9999988494186139</v>
+      </c>
+      <c r="L20">
+        <v>0.9999988494186139</v>
+      </c>
+      <c r="M20">
+        <v>1.000001731591894</v>
+      </c>
+      <c r="N20">
+        <v>1.000001731591894</v>
+      </c>
+      <c r="O20">
+        <v>1.000002000753035</v>
+      </c>
+      <c r="P20">
+        <v>1.000000770867467</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000770867467</v>
+      </c>
+      <c r="R20">
+        <v>1.000000290505254</v>
+      </c>
+      <c r="S20">
+        <v>1.000000290505254</v>
+      </c>
+      <c r="T20">
+        <v>1.000000103878608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000097711943654</v>
+      </c>
+      <c r="D21">
+        <v>0.9999755750148041</v>
+      </c>
+      <c r="E21">
+        <v>1.000097711943654</v>
+      </c>
+      <c r="F21">
+        <v>0.9999755750148041</v>
+      </c>
+      <c r="G21">
+        <v>1.000053742705463</v>
+      </c>
+      <c r="H21">
+        <v>0.999934856613431</v>
+      </c>
+      <c r="I21">
+        <v>0.9999755750148041</v>
+      </c>
+      <c r="J21">
+        <v>0.9999755750148041</v>
+      </c>
+      <c r="K21">
+        <v>0.9999755750148041</v>
+      </c>
+      <c r="L21">
+        <v>0.9999755750148041</v>
+      </c>
+      <c r="M21">
+        <v>1.000036643479229</v>
+      </c>
+      <c r="N21">
+        <v>1.000036643479229</v>
+      </c>
+      <c r="O21">
+        <v>1.000042343221307</v>
+      </c>
+      <c r="P21">
+        <v>1.000016287324421</v>
+      </c>
+      <c r="Q21">
+        <v>1.000016287324421</v>
+      </c>
+      <c r="R21">
+        <v>1.000006109247016</v>
+      </c>
+      <c r="S21">
+        <v>1.000006109247016</v>
+      </c>
+      <c r="T21">
+        <v>1.000002172717827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000344015491539</v>
+      </c>
+      <c r="D22">
+        <v>0.9999140000561568</v>
+      </c>
+      <c r="E22">
+        <v>1.000344015491539</v>
+      </c>
+      <c r="F22">
+        <v>0.9999140000561568</v>
+      </c>
+      <c r="G22">
+        <v>1.000189207870203</v>
+      </c>
+      <c r="H22">
+        <v>0.9997706538884166</v>
+      </c>
+      <c r="I22">
+        <v>0.9999140000561568</v>
+      </c>
+      <c r="J22">
+        <v>0.9999140000561568</v>
+      </c>
+      <c r="K22">
+        <v>0.9999140000561568</v>
+      </c>
+      <c r="L22">
+        <v>0.9999140000561568</v>
+      </c>
+      <c r="M22">
+        <v>1.000129007773848</v>
+      </c>
+      <c r="N22">
+        <v>1.000129007773848</v>
+      </c>
+      <c r="O22">
+        <v>1.000149074472633</v>
+      </c>
+      <c r="P22">
+        <v>1.000057338534618</v>
+      </c>
+      <c r="Q22">
+        <v>1.000057338534618</v>
+      </c>
+      <c r="R22">
+        <v>1.000021503915002</v>
+      </c>
+      <c r="S22">
+        <v>1.000021503915002</v>
+      </c>
+      <c r="T22">
+        <v>1.000007646236438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000805920535411</v>
+      </c>
+      <c r="D23">
         <v>0.9997985191074612</v>
       </c>
-      <c r="D19">
-        <v>1.000805920535412</v>
-      </c>
-      <c r="E19">
+      <c r="E23">
+        <v>1.000805920535411</v>
+      </c>
+      <c r="F23">
         <v>0.9997985191074612</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.000443256341843</v>
+      </c>
+      <c r="H23">
+        <v>0.9994627142287678</v>
+      </c>
+      <c r="I23">
         <v>0.9997985191074612</v>
       </c>
-      <c r="G19">
-        <v>0.9994627142287678</v>
-      </c>
-      <c r="H19">
-        <v>1.000443256341843</v>
-      </c>
-      <c r="I19">
+      <c r="J23">
         <v>0.9997985191074612</v>
       </c>
-      <c r="J19">
-        <v>1.000805920535412</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9997985191074612</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9997985191074612</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000302219821436</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000302219821436</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000349231994905</v>
       </c>
-      <c r="P19">
-        <v>1.000134319583445</v>
-      </c>
-      <c r="Q19">
-        <v>1.000134319583445</v>
-      </c>
-      <c r="R19">
+      <c r="P23">
+        <v>1.000134319583444</v>
+      </c>
+      <c r="Q23">
+        <v>1.000134319583444</v>
+      </c>
+      <c r="R23">
         <v>1.000050369464449</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000050369464449</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000017908071401</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/ShearF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001117322072471</v>
+        <v>1.011466223984149</v>
       </c>
       <c r="D3">
-        <v>0.9997206722218996</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="E3">
-        <v>1.001117322072471</v>
+        <v>1.011466223984149</v>
       </c>
       <c r="F3">
-        <v>0.9997206722218996</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="G3">
-        <v>1.000614528104837</v>
+        <v>1.006306422211817</v>
       </c>
       <c r="H3">
-        <v>0.9992551171206908</v>
+        <v>0.9923558510446716</v>
       </c>
       <c r="I3">
-        <v>0.9997206722218996</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="J3">
-        <v>0.9997206722218996</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="K3">
-        <v>0.9997206722218996</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="L3">
-        <v>0.9997206722218996</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="M3">
-        <v>1.000418997147185</v>
+        <v>1.004299835335013</v>
       </c>
       <c r="N3">
-        <v>1.000418997147185</v>
+        <v>1.004299835335013</v>
       </c>
       <c r="O3">
-        <v>1.000484174133069</v>
+        <v>1.004968697627281</v>
       </c>
       <c r="P3">
-        <v>1.00018622217209</v>
+        <v>1.001911039118635</v>
       </c>
       <c r="Q3">
-        <v>1.00018622217209</v>
+        <v>1.001911039118635</v>
       </c>
       <c r="R3">
-        <v>1.000069834684542</v>
+        <v>1.000716641010445</v>
       </c>
       <c r="S3">
-        <v>1.000069834684542</v>
+        <v>1.000716641010445</v>
       </c>
       <c r="T3">
-        <v>1.000024830660616</v>
+        <v>1.000254806216379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002156976843321</v>
+        <v>1.010585357304323</v>
       </c>
       <c r="D4">
-        <v>0.9994607575629819</v>
+        <v>0.9973536631969864</v>
       </c>
       <c r="E4">
-        <v>1.002156976843321</v>
+        <v>1.010585357304323</v>
       </c>
       <c r="F4">
-        <v>0.9994607575629819</v>
+        <v>0.9973536631969864</v>
       </c>
       <c r="G4">
-        <v>1.001186337361323</v>
+        <v>1.005821945884274</v>
       </c>
       <c r="H4">
-        <v>0.9985620150176987</v>
+        <v>0.9929430950111781</v>
       </c>
       <c r="I4">
-        <v>0.9994607575629819</v>
+        <v>0.9973536631969864</v>
       </c>
       <c r="J4">
-        <v>0.9994607575629819</v>
+        <v>0.9973536631969864</v>
       </c>
       <c r="K4">
-        <v>0.9994607575629819</v>
+        <v>0.9973536631969864</v>
       </c>
       <c r="L4">
-        <v>0.9994607575629819</v>
+        <v>0.9973536631969864</v>
       </c>
       <c r="M4">
-        <v>1.000808867203151</v>
+        <v>1.003969510250655</v>
       </c>
       <c r="N4">
-        <v>1.000808867203151</v>
+        <v>1.003969510250655</v>
       </c>
       <c r="O4">
-        <v>1.000934690589209</v>
+        <v>1.004586988795195</v>
       </c>
       <c r="P4">
-        <v>1.000359497323095</v>
+        <v>1.001764227899432</v>
       </c>
       <c r="Q4">
-        <v>1.000359497323095</v>
+        <v>1.001764227899432</v>
       </c>
       <c r="R4">
-        <v>1.000134812383067</v>
+        <v>1.000661586723821</v>
       </c>
       <c r="S4">
-        <v>1.000134812383067</v>
+        <v>1.000661586723821</v>
       </c>
       <c r="T4">
-        <v>1.000047933651881</v>
+        <v>1.000235231298456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004133579339035</v>
+        <v>1.013131181212939</v>
       </c>
       <c r="D5">
-        <v>0.998966601273922</v>
+        <v>0.9967172084905667</v>
       </c>
       <c r="E5">
-        <v>1.004133579339035</v>
+        <v>1.013131181212939</v>
       </c>
       <c r="F5">
-        <v>0.998966601273922</v>
+        <v>0.9967172084905667</v>
       </c>
       <c r="G5">
-        <v>1.002273469607788</v>
+        <v>1.007222149164421</v>
       </c>
       <c r="H5">
-        <v>0.9972442809000512</v>
+        <v>0.9912458835309973</v>
       </c>
       <c r="I5">
-        <v>0.998966601273922</v>
+        <v>0.9967172084905667</v>
       </c>
       <c r="J5">
-        <v>0.998966601273922</v>
+        <v>0.9967172084905667</v>
       </c>
       <c r="K5">
-        <v>0.998966601273922</v>
+        <v>0.9967172084905667</v>
       </c>
       <c r="L5">
-        <v>0.998966601273922</v>
+        <v>0.9967172084905667</v>
       </c>
       <c r="M5">
-        <v>1.001550090306478</v>
+        <v>1.004924194851753</v>
       </c>
       <c r="N5">
-        <v>1.001550090306478</v>
+        <v>1.004924194851753</v>
       </c>
       <c r="O5">
-        <v>1.001791216740249</v>
+        <v>1.005690179622642</v>
       </c>
       <c r="P5">
-        <v>1.000688927295626</v>
+        <v>1.002188532731357</v>
       </c>
       <c r="Q5">
-        <v>1.000688927295626</v>
+        <v>1.002188532731357</v>
       </c>
       <c r="R5">
-        <v>1.0002583457902</v>
+        <v>1.00082070167116</v>
       </c>
       <c r="S5">
-        <v>1.0002583457902</v>
+        <v>1.00082070167116</v>
       </c>
       <c r="T5">
-        <v>1.00009185561144</v>
+        <v>1.000291806563343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006062646215451</v>
+        <v>1.014676351761363</v>
       </c>
       <c r="D6">
-        <v>0.9984843456877495</v>
+        <v>0.9963309177840897</v>
       </c>
       <c r="E6">
-        <v>1.006062646215451</v>
+        <v>1.014676351761363</v>
       </c>
       <c r="F6">
-        <v>0.9984843456877495</v>
+        <v>0.9963309177840897</v>
       </c>
       <c r="G6">
-        <v>1.003334452399023</v>
+        <v>1.008071981249999</v>
       </c>
       <c r="H6">
-        <v>0.9959582380292011</v>
+        <v>0.9902157700568167</v>
       </c>
       <c r="I6">
-        <v>0.9984843456877495</v>
+        <v>0.9963309177840897</v>
       </c>
       <c r="J6">
-        <v>0.9984843456877495</v>
+        <v>0.9963309177840897</v>
       </c>
       <c r="K6">
-        <v>0.9984843456877495</v>
+        <v>0.9963309177840897</v>
       </c>
       <c r="L6">
-        <v>0.9984843456877495</v>
+        <v>0.9963309177840897</v>
       </c>
       <c r="M6">
-        <v>1.0022734959516</v>
+        <v>1.005503634772726</v>
       </c>
       <c r="N6">
-        <v>1.0022734959516</v>
+        <v>1.005503634772726</v>
       </c>
       <c r="O6">
-        <v>1.002627148100741</v>
+        <v>1.00635975026515</v>
       </c>
       <c r="P6">
-        <v>1.00101044586365</v>
+        <v>1.002446062443181</v>
       </c>
       <c r="Q6">
-        <v>1.00101044586365</v>
+        <v>1.002446062443181</v>
       </c>
       <c r="R6">
-        <v>1.000378920819675</v>
+        <v>1.000917276278408</v>
       </c>
       <c r="S6">
-        <v>1.000378920819675</v>
+        <v>1.000917276278408</v>
       </c>
       <c r="T6">
-        <v>1.000134728951154</v>
+        <v>1.000326142736741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000073226437473</v>
+        <v>0.9894133594842229</v>
       </c>
       <c r="D7">
-        <v>0.9999816962823789</v>
+        <v>1.002646673863406</v>
       </c>
       <c r="E7">
-        <v>1.000073226437473</v>
+        <v>0.9894133594842229</v>
       </c>
       <c r="F7">
-        <v>0.9999816962823789</v>
+        <v>1.002646673863406</v>
       </c>
       <c r="G7">
-        <v>1.000040276042921</v>
+        <v>0.9941773489719512</v>
       </c>
       <c r="H7">
-        <v>0.999951180495866</v>
+        <v>1.007057765714695</v>
       </c>
       <c r="I7">
-        <v>0.9999816962823789</v>
+        <v>1.002646673863406</v>
       </c>
       <c r="J7">
-        <v>0.9999816962823789</v>
+        <v>1.002646673863406</v>
       </c>
       <c r="K7">
-        <v>0.9999816962823789</v>
+        <v>1.002646673863406</v>
       </c>
       <c r="L7">
-        <v>0.9999816962823789</v>
+        <v>1.002646673863406</v>
       </c>
       <c r="M7">
-        <v>1.000027461359926</v>
+        <v>0.9960300166738145</v>
       </c>
       <c r="N7">
-        <v>1.000027461359926</v>
+        <v>0.9960300166738145</v>
       </c>
       <c r="O7">
-        <v>1.000031732920924</v>
+        <v>0.9954124607731935</v>
       </c>
       <c r="P7">
-        <v>1.000012206334077</v>
+        <v>0.9982355690703452</v>
       </c>
       <c r="Q7">
-        <v>1.000012206334077</v>
+        <v>0.9982355690703452</v>
       </c>
       <c r="R7">
-        <v>1.000004578821152</v>
+        <v>0.9993383452686104</v>
       </c>
       <c r="S7">
-        <v>1.000004578821152</v>
+        <v>0.9993383452686104</v>
       </c>
       <c r="T7">
-        <v>1.000001628637233</v>
+        <v>0.9997647492935147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000170471063384</v>
+        <v>0.9896759103416382</v>
       </c>
       <c r="D8">
-        <v>0.9999573850403616</v>
+        <v>1.00258103614197</v>
       </c>
       <c r="E8">
-        <v>1.000170471063384</v>
+        <v>0.9896759103416382</v>
       </c>
       <c r="F8">
-        <v>0.9999573850403616</v>
+        <v>1.00258103614197</v>
       </c>
       <c r="G8">
-        <v>1.000093760686411</v>
+        <v>0.9943217518419771</v>
       </c>
       <c r="H8">
-        <v>0.9998863506687469</v>
+        <v>1.006882731978828</v>
       </c>
       <c r="I8">
-        <v>0.9999573850403616</v>
+        <v>1.00258103614197</v>
       </c>
       <c r="J8">
-        <v>0.9999573850403616</v>
+        <v>1.00258103614197</v>
       </c>
       <c r="K8">
-        <v>0.9999573850403616</v>
+        <v>1.00258103614197</v>
       </c>
       <c r="L8">
-        <v>0.9999573850403616</v>
+        <v>1.00258103614197</v>
       </c>
       <c r="M8">
-        <v>1.000063928051873</v>
+        <v>0.9961284732418039</v>
       </c>
       <c r="N8">
-        <v>1.000063928051873</v>
+        <v>0.9961284732418039</v>
       </c>
       <c r="O8">
-        <v>1.000073872263386</v>
+        <v>0.9955262327751949</v>
       </c>
       <c r="P8">
-        <v>1.000028413714703</v>
+        <v>0.9982793275418591</v>
       </c>
       <c r="Q8">
-        <v>1.000028413714703</v>
+        <v>0.9982793275418591</v>
       </c>
       <c r="R8">
-        <v>1.000010656546117</v>
+        <v>0.9993547546918867</v>
       </c>
       <c r="S8">
-        <v>1.000010656546117</v>
+        <v>0.9993547546918867</v>
       </c>
       <c r="T8">
-        <v>1.000003789589938</v>
+        <v>0.9997705837647253</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000227067333073</v>
+        <v>0.9899276302061666</v>
       </c>
       <c r="D9">
-        <v>0.9999432361174779</v>
+        <v>1.002518106190887</v>
       </c>
       <c r="E9">
-        <v>1.000227067333073</v>
+        <v>0.9899276302061666</v>
       </c>
       <c r="F9">
-        <v>0.9999432361174779</v>
+        <v>1.002518106190887</v>
       </c>
       <c r="G9">
-        <v>1.000124888259217</v>
+        <v>0.9944601976679309</v>
       </c>
       <c r="H9">
-        <v>0.9998486202603087</v>
+        <v>1.006714918850313</v>
       </c>
       <c r="I9">
-        <v>0.9999432361174779</v>
+        <v>1.002518106190887</v>
       </c>
       <c r="J9">
-        <v>0.9999432361174779</v>
+        <v>1.002518106190887</v>
       </c>
       <c r="K9">
-        <v>0.9999432361174779</v>
+        <v>1.002518106190887</v>
       </c>
       <c r="L9">
-        <v>0.9999432361174779</v>
+        <v>1.002518106190887</v>
       </c>
       <c r="M9">
-        <v>1.000085151725276</v>
+        <v>0.9962228681985269</v>
       </c>
       <c r="N9">
-        <v>1.000085151725276</v>
+        <v>0.9962228681985269</v>
       </c>
       <c r="O9">
-        <v>1.00009839723659</v>
+        <v>0.9956353113549948</v>
       </c>
       <c r="P9">
-        <v>1.000037846522676</v>
+        <v>0.998321280862647</v>
       </c>
       <c r="Q9">
-        <v>1.000037846522676</v>
+        <v>0.998321280862647</v>
       </c>
       <c r="R9">
-        <v>1.000014193921377</v>
+        <v>0.9993704871947071</v>
       </c>
       <c r="S9">
-        <v>1.000014193921377</v>
+        <v>0.9993704871947071</v>
       </c>
       <c r="T9">
-        <v>1.000005047367506</v>
+        <v>0.9997761775495121</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000500983649405</v>
+        <v>0.9902696831671374</v>
       </c>
       <c r="D10">
-        <v>0.9998747569432196</v>
+        <v>1.002432592905509</v>
       </c>
       <c r="E10">
-        <v>1.000500983649405</v>
+        <v>0.9902696831671374</v>
       </c>
       <c r="F10">
-        <v>0.9998747569432196</v>
+        <v>1.002432592905509</v>
       </c>
       <c r="G10">
-        <v>1.000275541926569</v>
+        <v>0.9946483266000166</v>
       </c>
       <c r="H10">
-        <v>0.9996660091716167</v>
+        <v>1.006486884069441</v>
       </c>
       <c r="I10">
-        <v>0.9998747569432196</v>
+        <v>1.002432592905509</v>
       </c>
       <c r="J10">
-        <v>0.9998747569432196</v>
+        <v>1.002432592905509</v>
       </c>
       <c r="K10">
-        <v>0.9998747569432196</v>
+        <v>1.002432592905509</v>
       </c>
       <c r="L10">
-        <v>0.9998747569432196</v>
+        <v>1.002432592905509</v>
       </c>
       <c r="M10">
-        <v>1.000187870296312</v>
+        <v>0.996351138036323</v>
       </c>
       <c r="N10">
-        <v>1.000187870296312</v>
+        <v>0.996351138036323</v>
       </c>
       <c r="O10">
-        <v>1.000217094173065</v>
+        <v>0.9957835342242208</v>
       </c>
       <c r="P10">
-        <v>1.000083499178615</v>
+        <v>0.9983782896593848</v>
       </c>
       <c r="Q10">
-        <v>1.000083499178615</v>
+        <v>0.9983782896593848</v>
       </c>
       <c r="R10">
-        <v>1.000031313619766</v>
+        <v>0.9993918654709157</v>
       </c>
       <c r="S10">
-        <v>1.000031313619766</v>
+        <v>0.9993918654709157</v>
       </c>
       <c r="T10">
-        <v>1.000011134262875</v>
+        <v>0.9997837787588534</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000797576076363</v>
+        <v>1.001154214523949</v>
       </c>
       <c r="D11">
-        <v>0.9998006093776571</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="E11">
-        <v>1.000797576076363</v>
+        <v>1.001154214523949</v>
       </c>
       <c r="F11">
-        <v>0.9998006093776571</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="G11">
-        <v>1.000438668775437</v>
+        <v>1.000634818574399</v>
       </c>
       <c r="H11">
-        <v>0.9994682814220481</v>
+        <v>0.9992305226787018</v>
       </c>
       <c r="I11">
-        <v>0.9998006093776571</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="J11">
-        <v>0.9998006093776571</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="K11">
-        <v>0.9998006093776571</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="L11">
-        <v>0.9998006093776571</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="M11">
-        <v>1.00029909272701</v>
+        <v>1.000432831928497</v>
       </c>
       <c r="N11">
-        <v>1.00029909272701</v>
+        <v>1.000432831928497</v>
       </c>
       <c r="O11">
-        <v>1.000345618076486</v>
+        <v>1.000500160810464</v>
       </c>
       <c r="P11">
-        <v>1.000132931610559</v>
+        <v>1.000192371063346</v>
       </c>
       <c r="Q11">
-        <v>1.000132931610559</v>
+        <v>1.000192371063346</v>
       </c>
       <c r="R11">
-        <v>1.000049851052334</v>
+        <v>1.000072140630771</v>
       </c>
       <c r="S11">
-        <v>1.000049851052334</v>
+        <v>1.000072140630771</v>
       </c>
       <c r="T11">
-        <v>1.00001772573447</v>
+        <v>1.000025650629364</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.994632711958307</v>
+        <v>1.000485895642202</v>
       </c>
       <c r="D12">
-        <v>1.00134182536628</v>
+        <v>0.9998785290328901</v>
       </c>
       <c r="E12">
-        <v>0.994632711958307</v>
+        <v>1.000485895642202</v>
       </c>
       <c r="F12">
-        <v>1.00134182536628</v>
+        <v>0.9998785290328901</v>
       </c>
       <c r="G12">
-        <v>0.9970479963749214</v>
+        <v>1.000267243888483</v>
       </c>
       <c r="H12">
-        <v>1.0035781878889</v>
+        <v>0.9996760678409374</v>
       </c>
       <c r="I12">
-        <v>1.00134182536628</v>
+        <v>0.9998785290328901</v>
       </c>
       <c r="J12">
-        <v>1.00134182536628</v>
+        <v>0.9998785290328901</v>
       </c>
       <c r="K12">
-        <v>1.00134182536628</v>
+        <v>0.9998785290328901</v>
       </c>
       <c r="L12">
-        <v>1.00134182536628</v>
+        <v>0.9998785290328901</v>
       </c>
       <c r="M12">
-        <v>0.9979872686622937</v>
+        <v>1.000182212337546</v>
       </c>
       <c r="N12">
-        <v>0.9979872686622937</v>
+        <v>1.000182212337546</v>
       </c>
       <c r="O12">
-        <v>0.9976741778998363</v>
+        <v>1.000210556187858</v>
       </c>
       <c r="P12">
-        <v>0.9991054542302892</v>
+        <v>1.000080984569327</v>
       </c>
       <c r="Q12">
-        <v>0.9991054542302892</v>
+        <v>1.000080984569327</v>
       </c>
       <c r="R12">
-        <v>0.999664547014287</v>
+        <v>1.000030370685218</v>
       </c>
       <c r="S12">
-        <v>0.999664547014287</v>
+        <v>1.000030370685218</v>
       </c>
       <c r="T12">
-        <v>0.9998807287201616</v>
+        <v>1.000010799078382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9986226192190829</v>
+        <v>1.001548715244843</v>
       </c>
       <c r="D13">
-        <v>1.000344344972705</v>
+        <v>0.9996128252794038</v>
       </c>
       <c r="E13">
-        <v>0.9986226192190829</v>
+        <v>1.001548715244843</v>
       </c>
       <c r="F13">
-        <v>1.000344344972705</v>
+        <v>0.9996128252794038</v>
       </c>
       <c r="G13">
-        <v>0.9992424376947757</v>
+        <v>1.000851795331555</v>
       </c>
       <c r="H13">
-        <v>1.000918247480899</v>
+        <v>0.9989675221764708</v>
       </c>
       <c r="I13">
-        <v>1.000344344972705</v>
+        <v>0.9996128252794038</v>
       </c>
       <c r="J13">
-        <v>1.000344344972705</v>
+        <v>0.9996128252794038</v>
       </c>
       <c r="K13">
-        <v>1.000344344972705</v>
+        <v>0.9996128252794038</v>
       </c>
       <c r="L13">
-        <v>1.000344344972705</v>
+        <v>0.9996128252794038</v>
       </c>
       <c r="M13">
-        <v>0.9994834820958938</v>
+        <v>1.000580770262124</v>
       </c>
       <c r="N13">
-        <v>0.9994834820958938</v>
+        <v>1.000580770262124</v>
       </c>
       <c r="O13">
-        <v>0.9994031339621877</v>
+        <v>1.000671111951934</v>
       </c>
       <c r="P13">
-        <v>0.9997704363881641</v>
+        <v>1.00025812193455</v>
       </c>
       <c r="Q13">
-        <v>0.9997704363881641</v>
+        <v>1.00025812193455</v>
       </c>
       <c r="R13">
-        <v>0.9999139135342993</v>
+        <v>1.000096797770764</v>
       </c>
       <c r="S13">
-        <v>0.9999139135342993</v>
+        <v>1.000096797770764</v>
       </c>
       <c r="T13">
-        <v>0.9999693898854787</v>
+        <v>1.000034418098513</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9873439627911561</v>
+        <v>1.003108863569004</v>
       </c>
       <c r="D14">
-        <v>1.003164008499625</v>
+        <v>0.9992227863277804</v>
       </c>
       <c r="E14">
-        <v>0.9873439627911561</v>
+        <v>1.003108863569004</v>
       </c>
       <c r="F14">
-        <v>1.003164008499625</v>
+        <v>0.9992227863277804</v>
       </c>
       <c r="G14">
-        <v>0.993039178010384</v>
+        <v>1.001709867592852</v>
       </c>
       <c r="H14">
-        <v>1.00843735622691</v>
+        <v>0.997927426507545</v>
       </c>
       <c r="I14">
-        <v>1.003164008499625</v>
+        <v>0.9992227863277804</v>
       </c>
       <c r="J14">
-        <v>1.003164008499625</v>
+        <v>0.9992227863277804</v>
       </c>
       <c r="K14">
-        <v>1.003164008499625</v>
+        <v>0.9992227863277804</v>
       </c>
       <c r="L14">
-        <v>1.003164008499625</v>
+        <v>0.9992227863277804</v>
       </c>
       <c r="M14">
-        <v>0.9952539856453908</v>
+        <v>1.001165824948392</v>
       </c>
       <c r="N14">
-        <v>0.9952539856453908</v>
+        <v>1.001165824948392</v>
       </c>
       <c r="O14">
-        <v>0.9945157164337219</v>
+        <v>1.001347172496545</v>
       </c>
       <c r="P14">
-        <v>0.9978906599301357</v>
+        <v>1.000518145408188</v>
       </c>
       <c r="Q14">
-        <v>0.9978906599301357</v>
+        <v>1.000518145408188</v>
       </c>
       <c r="R14">
-        <v>0.9992089970725081</v>
+        <v>1.000194305638086</v>
       </c>
       <c r="S14">
-        <v>0.9992089970725081</v>
+        <v>1.000194305638086</v>
       </c>
       <c r="T14">
-        <v>0.9997187537545544</v>
+        <v>1.00006908610879</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9967239804633086</v>
+        <v>1.001117322072471</v>
       </c>
       <c r="D15">
-        <v>1.000819011752151</v>
+        <v>0.9997206722218996</v>
       </c>
       <c r="E15">
-        <v>0.9967239804633086</v>
+        <v>1.001117322072471</v>
       </c>
       <c r="F15">
-        <v>1.000819011752151</v>
+        <v>0.9997206722218996</v>
       </c>
       <c r="G15">
-        <v>0.9981981847890377</v>
+        <v>1.000614528104837</v>
       </c>
       <c r="H15">
-        <v>1.002184013118497</v>
+        <v>0.9992551171206908</v>
       </c>
       <c r="I15">
-        <v>1.000819011752151</v>
+        <v>0.9997206722218996</v>
       </c>
       <c r="J15">
-        <v>1.000819011752151</v>
+        <v>0.9997206722218996</v>
       </c>
       <c r="K15">
-        <v>1.000819011752151</v>
+        <v>0.9997206722218996</v>
       </c>
       <c r="L15">
-        <v>1.000819011752151</v>
+        <v>0.9997206722218996</v>
       </c>
       <c r="M15">
-        <v>0.9987714961077296</v>
+        <v>1.000418997147185</v>
       </c>
       <c r="N15">
-        <v>0.9987714961077296</v>
+        <v>1.000418997147185</v>
       </c>
       <c r="O15">
-        <v>0.9985803923348323</v>
+        <v>1.000484174133069</v>
       </c>
       <c r="P15">
-        <v>0.9994540013225367</v>
+        <v>1.00018622217209</v>
       </c>
       <c r="Q15">
-        <v>0.9994540013225367</v>
+        <v>1.00018622217209</v>
       </c>
       <c r="R15">
-        <v>0.9997952539299402</v>
+        <v>1.000069834684542</v>
       </c>
       <c r="S15">
-        <v>0.9997952539299402</v>
+        <v>1.000069834684542</v>
       </c>
       <c r="T15">
-        <v>0.9999272022712159</v>
+        <v>1.000024830660616</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.021789393710995</v>
+        <v>1.002156976843321</v>
       </c>
       <c r="D16">
-        <v>0.9945526531001551</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="E16">
-        <v>1.021789393710995</v>
+        <v>1.002156976843321</v>
       </c>
       <c r="F16">
-        <v>0.9945526531001551</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="G16">
-        <v>1.01198416106469</v>
+        <v>1.001186337361323</v>
       </c>
       <c r="H16">
-        <v>0.9854737410002251</v>
+        <v>0.9985620150176987</v>
       </c>
       <c r="I16">
-        <v>0.9945526531001551</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="J16">
-        <v>0.9945526531001551</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="K16">
-        <v>0.9945526531001551</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="L16">
-        <v>0.9945526531001551</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="M16">
-        <v>1.008171023405575</v>
+        <v>1.000808867203151</v>
       </c>
       <c r="N16">
-        <v>1.008171023405575</v>
+        <v>1.000808867203151</v>
       </c>
       <c r="O16">
-        <v>1.009442069291947</v>
+        <v>1.000934690589209</v>
       </c>
       <c r="P16">
-        <v>1.003631566637101</v>
+        <v>1.000359497323095</v>
       </c>
       <c r="Q16">
-        <v>1.003631566637101</v>
+        <v>1.000359497323095</v>
       </c>
       <c r="R16">
-        <v>1.001361838252865</v>
+        <v>1.000134812383067</v>
       </c>
       <c r="S16">
-        <v>1.001361838252865</v>
+        <v>1.000134812383067</v>
       </c>
       <c r="T16">
-        <v>1.000484209179396</v>
+        <v>1.000047933651881</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.017817195041901</v>
+        <v>1.004133579339035</v>
       </c>
       <c r="D17">
-        <v>0.9955457030499659</v>
+        <v>0.998966601273922</v>
       </c>
       <c r="E17">
-        <v>1.017817195041901</v>
+        <v>1.004133579339035</v>
       </c>
       <c r="F17">
-        <v>0.9955457030499659</v>
+        <v>0.998966601273922</v>
       </c>
       <c r="G17">
-        <v>1.009799453505664</v>
+        <v>1.002273469607788</v>
       </c>
       <c r="H17">
-        <v>0.9881218721282039</v>
+        <v>0.9972442809000512</v>
       </c>
       <c r="I17">
-        <v>0.9955457030499659</v>
+        <v>0.998966601273922</v>
       </c>
       <c r="J17">
-        <v>0.9955457030499659</v>
+        <v>0.998966601273922</v>
       </c>
       <c r="K17">
-        <v>0.9955457030499659</v>
+        <v>0.998966601273922</v>
       </c>
       <c r="L17">
-        <v>0.9955457030499659</v>
+        <v>0.998966601273922</v>
       </c>
       <c r="M17">
-        <v>1.006681449045933</v>
+        <v>1.001550090306478</v>
       </c>
       <c r="N17">
-        <v>1.006681449045933</v>
+        <v>1.001550090306478</v>
       </c>
       <c r="O17">
-        <v>1.007720783865843</v>
+        <v>1.001791216740249</v>
       </c>
       <c r="P17">
-        <v>1.002969533713944</v>
+        <v>1.000688927295626</v>
       </c>
       <c r="Q17">
-        <v>1.002969533713944</v>
+        <v>1.000688927295626</v>
       </c>
       <c r="R17">
-        <v>1.001113576047949</v>
+        <v>1.0002583457902</v>
       </c>
       <c r="S17">
-        <v>1.001113576047949</v>
+        <v>1.0002583457902</v>
       </c>
       <c r="T17">
-        <v>1.000395938304278</v>
+        <v>1.00009185561144</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.009805322899433</v>
+        <v>1.006062646215451</v>
       </c>
       <c r="D18">
-        <v>0.997548670570045</v>
+        <v>0.9984843456877495</v>
       </c>
       <c r="E18">
-        <v>1.009805322899433</v>
+        <v>1.006062646215451</v>
       </c>
       <c r="F18">
-        <v>0.997548670570045</v>
+        <v>0.9984843456877495</v>
       </c>
       <c r="G18">
-        <v>1.005392927926041</v>
+        <v>1.003334452399023</v>
       </c>
       <c r="H18">
-        <v>0.9934631162054085</v>
+        <v>0.9959582380292011</v>
       </c>
       <c r="I18">
-        <v>0.997548670570045</v>
+        <v>0.9984843456877495</v>
       </c>
       <c r="J18">
-        <v>0.997548670570045</v>
+        <v>0.9984843456877495</v>
       </c>
       <c r="K18">
-        <v>0.997548670570045</v>
+        <v>0.9984843456877495</v>
       </c>
       <c r="L18">
-        <v>0.997548670570045</v>
+        <v>0.9984843456877495</v>
       </c>
       <c r="M18">
-        <v>1.003676996734739</v>
+        <v>1.0022734959516</v>
       </c>
       <c r="N18">
-        <v>1.003676996734739</v>
+        <v>1.0022734959516</v>
       </c>
       <c r="O18">
-        <v>1.004248973798506</v>
+        <v>1.002627148100741</v>
       </c>
       <c r="P18">
-        <v>1.001634221346508</v>
+        <v>1.00101044586365</v>
       </c>
       <c r="Q18">
-        <v>1.001634221346508</v>
+        <v>1.00101044586365</v>
       </c>
       <c r="R18">
-        <v>1.000612833652392</v>
+        <v>1.000378920819675</v>
       </c>
       <c r="S18">
-        <v>1.000612833652392</v>
+        <v>1.000378920819675</v>
       </c>
       <c r="T18">
-        <v>1.000217896456836</v>
+        <v>1.000134728951154</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.010690044486036</v>
+        <v>1.000073226437473</v>
       </c>
       <c r="D19">
-        <v>0.9973274899447397</v>
+        <v>0.9999816962823789</v>
       </c>
       <c r="E19">
-        <v>1.010690044486036</v>
+        <v>1.000073226437473</v>
       </c>
       <c r="F19">
-        <v>0.9973274899447397</v>
+        <v>0.9999816962823789</v>
       </c>
       <c r="G19">
-        <v>1.005879519976536</v>
+        <v>1.000040276042921</v>
       </c>
       <c r="H19">
-        <v>0.9928732989869715</v>
+        <v>0.999951180495866</v>
       </c>
       <c r="I19">
-        <v>0.9973274899447397</v>
+        <v>0.9999816962823789</v>
       </c>
       <c r="J19">
-        <v>0.9973274899447397</v>
+        <v>0.9999816962823789</v>
       </c>
       <c r="K19">
-        <v>0.9973274899447397</v>
+        <v>0.9999816962823789</v>
       </c>
       <c r="L19">
-        <v>0.9973274899447397</v>
+        <v>0.9999816962823789</v>
       </c>
       <c r="M19">
-        <v>1.004008767215388</v>
+        <v>1.000027461359926</v>
       </c>
       <c r="N19">
-        <v>1.004008767215388</v>
+        <v>1.000027461359926</v>
       </c>
       <c r="O19">
-        <v>1.004632351469104</v>
+        <v>1.000031732920924</v>
       </c>
       <c r="P19">
-        <v>1.001781674791838</v>
+        <v>1.000012206334077</v>
       </c>
       <c r="Q19">
-        <v>1.001781674791838</v>
+        <v>1.000012206334077</v>
       </c>
       <c r="R19">
-        <v>1.000668128580064</v>
+        <v>1.000004578821152</v>
       </c>
       <c r="S19">
-        <v>1.000668128580064</v>
+        <v>1.000004578821152</v>
       </c>
       <c r="T19">
-        <v>1.000237555547294</v>
+        <v>1.000001628637233</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000004613765174</v>
+        <v>1.000170471063384</v>
       </c>
       <c r="D20">
-        <v>0.9999988494186139</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="E20">
-        <v>1.000004613765174</v>
+        <v>1.000170471063384</v>
       </c>
       <c r="F20">
-        <v>0.9999988494186139</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="G20">
-        <v>1.000002539075317</v>
+        <v>1.000093760686411</v>
       </c>
       <c r="H20">
-        <v>0.9999969221753151</v>
+        <v>0.9998863506687469</v>
       </c>
       <c r="I20">
-        <v>0.9999988494186139</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="J20">
-        <v>0.9999988494186139</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="K20">
-        <v>0.9999988494186139</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="L20">
-        <v>0.9999988494186139</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="M20">
-        <v>1.000001731591894</v>
+        <v>1.000063928051873</v>
       </c>
       <c r="N20">
-        <v>1.000001731591894</v>
+        <v>1.000063928051873</v>
       </c>
       <c r="O20">
-        <v>1.000002000753035</v>
+        <v>1.000073872263386</v>
       </c>
       <c r="P20">
-        <v>1.000000770867467</v>
+        <v>1.000028413714703</v>
       </c>
       <c r="Q20">
-        <v>1.000000770867467</v>
+        <v>1.000028413714703</v>
       </c>
       <c r="R20">
-        <v>1.000000290505254</v>
+        <v>1.000010656546117</v>
       </c>
       <c r="S20">
-        <v>1.000000290505254</v>
+        <v>1.000010656546117</v>
       </c>
       <c r="T20">
-        <v>1.000000103878608</v>
+        <v>1.000003789589938</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000097711943654</v>
+        <v>1.000227067333073</v>
       </c>
       <c r="D21">
-        <v>0.9999755750148041</v>
+        <v>0.9999432361174779</v>
       </c>
       <c r="E21">
-        <v>1.000097711943654</v>
+        <v>1.000227067333073</v>
       </c>
       <c r="F21">
-        <v>0.9999755750148041</v>
+        <v>0.9999432361174779</v>
       </c>
       <c r="G21">
-        <v>1.000053742705463</v>
+        <v>1.000124888259217</v>
       </c>
       <c r="H21">
-        <v>0.999934856613431</v>
+        <v>0.9998486202603087</v>
       </c>
       <c r="I21">
-        <v>0.9999755750148041</v>
+        <v>0.9999432361174779</v>
       </c>
       <c r="J21">
-        <v>0.9999755750148041</v>
+        <v>0.9999432361174779</v>
       </c>
       <c r="K21">
-        <v>0.9999755750148041</v>
+        <v>0.9999432361174779</v>
       </c>
       <c r="L21">
-        <v>0.9999755750148041</v>
+        <v>0.9999432361174779</v>
       </c>
       <c r="M21">
-        <v>1.000036643479229</v>
+        <v>1.000085151725276</v>
       </c>
       <c r="N21">
-        <v>1.000036643479229</v>
+        <v>1.000085151725276</v>
       </c>
       <c r="O21">
-        <v>1.000042343221307</v>
+        <v>1.00009839723659</v>
       </c>
       <c r="P21">
-        <v>1.000016287324421</v>
+        <v>1.000037846522676</v>
       </c>
       <c r="Q21">
-        <v>1.000016287324421</v>
+        <v>1.000037846522676</v>
       </c>
       <c r="R21">
-        <v>1.000006109247016</v>
+        <v>1.000014193921377</v>
       </c>
       <c r="S21">
-        <v>1.000006109247016</v>
+        <v>1.000014193921377</v>
       </c>
       <c r="T21">
-        <v>1.000002172717827</v>
+        <v>1.000005047367506</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000344015491539</v>
+        <v>1.000500983649405</v>
       </c>
       <c r="D22">
-        <v>0.9999140000561568</v>
+        <v>0.9998747569432196</v>
       </c>
       <c r="E22">
-        <v>1.000344015491539</v>
+        <v>1.000500983649405</v>
       </c>
       <c r="F22">
-        <v>0.9999140000561568</v>
+        <v>0.9998747569432196</v>
       </c>
       <c r="G22">
-        <v>1.000189207870203</v>
+        <v>1.000275541926569</v>
       </c>
       <c r="H22">
-        <v>0.9997706538884166</v>
+        <v>0.9996660091716167</v>
       </c>
       <c r="I22">
-        <v>0.9999140000561568</v>
+        <v>0.9998747569432196</v>
       </c>
       <c r="J22">
-        <v>0.9999140000561568</v>
+        <v>0.9998747569432196</v>
       </c>
       <c r="K22">
-        <v>0.9999140000561568</v>
+        <v>0.9998747569432196</v>
       </c>
       <c r="L22">
-        <v>0.9999140000561568</v>
+        <v>0.9998747569432196</v>
       </c>
       <c r="M22">
-        <v>1.000129007773848</v>
+        <v>1.000187870296312</v>
       </c>
       <c r="N22">
-        <v>1.000129007773848</v>
+        <v>1.000187870296312</v>
       </c>
       <c r="O22">
-        <v>1.000149074472633</v>
+        <v>1.000217094173065</v>
       </c>
       <c r="P22">
-        <v>1.000057338534618</v>
+        <v>1.000083499178615</v>
       </c>
       <c r="Q22">
-        <v>1.000057338534618</v>
+        <v>1.000083499178615</v>
       </c>
       <c r="R22">
-        <v>1.000021503915002</v>
+        <v>1.000031313619766</v>
       </c>
       <c r="S22">
-        <v>1.000021503915002</v>
+        <v>1.000031313619766</v>
       </c>
       <c r="T22">
-        <v>1.000007646236438</v>
+        <v>1.000011134262875</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000797576076363</v>
+      </c>
+      <c r="D23">
+        <v>0.9998006093776571</v>
+      </c>
+      <c r="E23">
+        <v>1.000797576076363</v>
+      </c>
+      <c r="F23">
+        <v>0.9998006093776571</v>
+      </c>
+      <c r="G23">
+        <v>1.000438668775437</v>
+      </c>
+      <c r="H23">
+        <v>0.9994682814220481</v>
+      </c>
+      <c r="I23">
+        <v>0.9998006093776571</v>
+      </c>
+      <c r="J23">
+        <v>0.9998006093776571</v>
+      </c>
+      <c r="K23">
+        <v>0.9998006093776571</v>
+      </c>
+      <c r="L23">
+        <v>0.9998006093776571</v>
+      </c>
+      <c r="M23">
+        <v>1.00029909272701</v>
+      </c>
+      <c r="N23">
+        <v>1.00029909272701</v>
+      </c>
+      <c r="O23">
+        <v>1.000345618076486</v>
+      </c>
+      <c r="P23">
+        <v>1.000132931610559</v>
+      </c>
+      <c r="Q23">
+        <v>1.000132931610559</v>
+      </c>
+      <c r="R23">
+        <v>1.000049851052334</v>
+      </c>
+      <c r="S23">
+        <v>1.000049851052334</v>
+      </c>
+      <c r="T23">
+        <v>1.00001772573447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.994632711958307</v>
+      </c>
+      <c r="D24">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="E24">
+        <v>0.994632711958307</v>
+      </c>
+      <c r="F24">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="G24">
+        <v>0.9970479963749214</v>
+      </c>
+      <c r="H24">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="I24">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="J24">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="K24">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="L24">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="M24">
+        <v>0.9979872686622937</v>
+      </c>
+      <c r="N24">
+        <v>0.9979872686622937</v>
+      </c>
+      <c r="O24">
+        <v>0.9976741778998363</v>
+      </c>
+      <c r="P24">
+        <v>0.9991054542302892</v>
+      </c>
+      <c r="Q24">
+        <v>0.9991054542302892</v>
+      </c>
+      <c r="R24">
+        <v>0.999664547014287</v>
+      </c>
+      <c r="S24">
+        <v>0.999664547014287</v>
+      </c>
+      <c r="T24">
+        <v>0.9998807287201616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9986226192190829</v>
+      </c>
+      <c r="D25">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="E25">
+        <v>0.9986226192190829</v>
+      </c>
+      <c r="F25">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="G25">
+        <v>0.9992424376947757</v>
+      </c>
+      <c r="H25">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="I25">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="J25">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="K25">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="L25">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="M25">
+        <v>0.9994834820958938</v>
+      </c>
+      <c r="N25">
+        <v>0.9994834820958938</v>
+      </c>
+      <c r="O25">
+        <v>0.9994031339621877</v>
+      </c>
+      <c r="P25">
+        <v>0.9997704363881641</v>
+      </c>
+      <c r="Q25">
+        <v>0.9997704363881641</v>
+      </c>
+      <c r="R25">
+        <v>0.9999139135342993</v>
+      </c>
+      <c r="S25">
+        <v>0.9999139135342993</v>
+      </c>
+      <c r="T25">
+        <v>0.9999693898854787</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="D26">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="E26">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="F26">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="G26">
+        <v>0.993039178010384</v>
+      </c>
+      <c r="H26">
+        <v>1.00843735622691</v>
+      </c>
+      <c r="I26">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="J26">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="K26">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="L26">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="M26">
+        <v>0.9952539856453908</v>
+      </c>
+      <c r="N26">
+        <v>0.9952539856453908</v>
+      </c>
+      <c r="O26">
+        <v>0.9945157164337219</v>
+      </c>
+      <c r="P26">
+        <v>0.9978906599301357</v>
+      </c>
+      <c r="Q26">
+        <v>0.9978906599301357</v>
+      </c>
+      <c r="R26">
+        <v>0.9992089970725081</v>
+      </c>
+      <c r="S26">
+        <v>0.9992089970725081</v>
+      </c>
+      <c r="T26">
+        <v>0.9997187537545544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9967239804633086</v>
+      </c>
+      <c r="D27">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="E27">
+        <v>0.9967239804633086</v>
+      </c>
+      <c r="F27">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="G27">
+        <v>0.9981981847890377</v>
+      </c>
+      <c r="H27">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="I27">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="J27">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="K27">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="L27">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="M27">
+        <v>0.9987714961077296</v>
+      </c>
+      <c r="N27">
+        <v>0.9987714961077296</v>
+      </c>
+      <c r="O27">
+        <v>0.9985803923348323</v>
+      </c>
+      <c r="P27">
+        <v>0.9994540013225367</v>
+      </c>
+      <c r="Q27">
+        <v>0.9994540013225367</v>
+      </c>
+      <c r="R27">
+        <v>0.9997952539299402</v>
+      </c>
+      <c r="S27">
+        <v>0.9997952539299402</v>
+      </c>
+      <c r="T27">
+        <v>0.9999272022712159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.021789393710995</v>
+      </c>
+      <c r="D28">
+        <v>0.9945526531001551</v>
+      </c>
+      <c r="E28">
+        <v>1.021789393710995</v>
+      </c>
+      <c r="F28">
+        <v>0.9945526531001551</v>
+      </c>
+      <c r="G28">
+        <v>1.01198416106469</v>
+      </c>
+      <c r="H28">
+        <v>0.9854737410002251</v>
+      </c>
+      <c r="I28">
+        <v>0.9945526531001551</v>
+      </c>
+      <c r="J28">
+        <v>0.9945526531001551</v>
+      </c>
+      <c r="K28">
+        <v>0.9945526531001551</v>
+      </c>
+      <c r="L28">
+        <v>0.9945526531001551</v>
+      </c>
+      <c r="M28">
+        <v>1.008171023405575</v>
+      </c>
+      <c r="N28">
+        <v>1.008171023405575</v>
+      </c>
+      <c r="O28">
+        <v>1.009442069291947</v>
+      </c>
+      <c r="P28">
+        <v>1.003631566637101</v>
+      </c>
+      <c r="Q28">
+        <v>1.003631566637101</v>
+      </c>
+      <c r="R28">
+        <v>1.001361838252865</v>
+      </c>
+      <c r="S28">
+        <v>1.001361838252865</v>
+      </c>
+      <c r="T28">
+        <v>1.000484209179396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.017817195041901</v>
+      </c>
+      <c r="D29">
+        <v>0.9955457030499659</v>
+      </c>
+      <c r="E29">
+        <v>1.017817195041901</v>
+      </c>
+      <c r="F29">
+        <v>0.9955457030499659</v>
+      </c>
+      <c r="G29">
+        <v>1.009799453505664</v>
+      </c>
+      <c r="H29">
+        <v>0.9881218721282039</v>
+      </c>
+      <c r="I29">
+        <v>0.9955457030499659</v>
+      </c>
+      <c r="J29">
+        <v>0.9955457030499659</v>
+      </c>
+      <c r="K29">
+        <v>0.9955457030499659</v>
+      </c>
+      <c r="L29">
+        <v>0.9955457030499659</v>
+      </c>
+      <c r="M29">
+        <v>1.006681449045933</v>
+      </c>
+      <c r="N29">
+        <v>1.006681449045933</v>
+      </c>
+      <c r="O29">
+        <v>1.007720783865843</v>
+      </c>
+      <c r="P29">
+        <v>1.002969533713944</v>
+      </c>
+      <c r="Q29">
+        <v>1.002969533713944</v>
+      </c>
+      <c r="R29">
+        <v>1.001113576047949</v>
+      </c>
+      <c r="S29">
+        <v>1.001113576047949</v>
+      </c>
+      <c r="T29">
+        <v>1.000395938304278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.009805322899433</v>
+      </c>
+      <c r="D30">
+        <v>0.997548670570045</v>
+      </c>
+      <c r="E30">
+        <v>1.009805322899433</v>
+      </c>
+      <c r="F30">
+        <v>0.997548670570045</v>
+      </c>
+      <c r="G30">
+        <v>1.005392927926041</v>
+      </c>
+      <c r="H30">
+        <v>0.9934631162054085</v>
+      </c>
+      <c r="I30">
+        <v>0.997548670570045</v>
+      </c>
+      <c r="J30">
+        <v>0.997548670570045</v>
+      </c>
+      <c r="K30">
+        <v>0.997548670570045</v>
+      </c>
+      <c r="L30">
+        <v>0.997548670570045</v>
+      </c>
+      <c r="M30">
+        <v>1.003676996734739</v>
+      </c>
+      <c r="N30">
+        <v>1.003676996734739</v>
+      </c>
+      <c r="O30">
+        <v>1.004248973798506</v>
+      </c>
+      <c r="P30">
+        <v>1.001634221346508</v>
+      </c>
+      <c r="Q30">
+        <v>1.001634221346508</v>
+      </c>
+      <c r="R30">
+        <v>1.000612833652392</v>
+      </c>
+      <c r="S30">
+        <v>1.000612833652392</v>
+      </c>
+      <c r="T30">
+        <v>1.000217896456836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.010690044486036</v>
+      </c>
+      <c r="D31">
+        <v>0.9973274899447397</v>
+      </c>
+      <c r="E31">
+        <v>1.010690044486036</v>
+      </c>
+      <c r="F31">
+        <v>0.9973274899447397</v>
+      </c>
+      <c r="G31">
+        <v>1.005879519976536</v>
+      </c>
+      <c r="H31">
+        <v>0.9928732989869715</v>
+      </c>
+      <c r="I31">
+        <v>0.9973274899447397</v>
+      </c>
+      <c r="J31">
+        <v>0.9973274899447397</v>
+      </c>
+      <c r="K31">
+        <v>0.9973274899447397</v>
+      </c>
+      <c r="L31">
+        <v>0.9973274899447397</v>
+      </c>
+      <c r="M31">
+        <v>1.004008767215388</v>
+      </c>
+      <c r="N31">
+        <v>1.004008767215388</v>
+      </c>
+      <c r="O31">
+        <v>1.004632351469104</v>
+      </c>
+      <c r="P31">
+        <v>1.001781674791838</v>
+      </c>
+      <c r="Q31">
+        <v>1.001781674791838</v>
+      </c>
+      <c r="R31">
+        <v>1.000668128580064</v>
+      </c>
+      <c r="S31">
+        <v>1.000668128580064</v>
+      </c>
+      <c r="T31">
+        <v>1.000237555547294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.025198640684932</v>
+      </c>
+      <c r="D32">
+        <v>0.9937003410958907</v>
+      </c>
+      <c r="E32">
+        <v>1.025198640684932</v>
+      </c>
+      <c r="F32">
+        <v>0.9937003410958907</v>
+      </c>
+      <c r="G32">
+        <v>1.013859245342465</v>
+      </c>
+      <c r="H32">
+        <v>0.9832009115068501</v>
+      </c>
+      <c r="I32">
+        <v>0.9937003410958907</v>
+      </c>
+      <c r="J32">
+        <v>0.9937003410958907</v>
+      </c>
+      <c r="K32">
+        <v>0.9937003410958907</v>
+      </c>
+      <c r="L32">
+        <v>0.9937003410958907</v>
+      </c>
+      <c r="M32">
+        <v>1.009449490890411</v>
+      </c>
+      <c r="N32">
+        <v>1.009449490890411</v>
+      </c>
+      <c r="O32">
+        <v>1.010919409041096</v>
+      </c>
+      <c r="P32">
+        <v>1.004199774292238</v>
+      </c>
+      <c r="Q32">
+        <v>1.004199774292238</v>
+      </c>
+      <c r="R32">
+        <v>1.001574915993151</v>
+      </c>
+      <c r="S32">
+        <v>1.001574915993151</v>
+      </c>
+      <c r="T32">
+        <v>1.000559970136986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9952496973684211</v>
+      </c>
+      <c r="D33">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="E33">
+        <v>0.9952496973684211</v>
+      </c>
+      <c r="F33">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="G33">
+        <v>0.9973873331578946</v>
+      </c>
+      <c r="H33">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="I33">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="J33">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="K33">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="L33">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="M33">
+        <v>0.9982186431578947</v>
+      </c>
+      <c r="N33">
+        <v>0.9982186431578947</v>
+      </c>
+      <c r="O33">
+        <v>0.9979415398245614</v>
+      </c>
+      <c r="P33">
+        <v>0.9992082917543859</v>
+      </c>
+      <c r="Q33">
+        <v>0.9992082917543859</v>
+      </c>
+      <c r="R33">
+        <v>0.9997031160526315</v>
+      </c>
+      <c r="S33">
+        <v>0.9997031160526315</v>
+      </c>
+      <c r="T33">
+        <v>0.9998944456140348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9952496973684211</v>
+      </c>
+      <c r="D34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="E34">
+        <v>0.9952496973684211</v>
+      </c>
+      <c r="F34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="G34">
+        <v>0.9973873331578946</v>
+      </c>
+      <c r="H34">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="I34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="J34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="K34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="L34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="M34">
+        <v>0.9982186431578947</v>
+      </c>
+      <c r="N34">
+        <v>0.9982186431578947</v>
+      </c>
+      <c r="O34">
+        <v>0.9979415398245614</v>
+      </c>
+      <c r="P34">
+        <v>0.9992082917543859</v>
+      </c>
+      <c r="Q34">
+        <v>0.9992082917543859</v>
+      </c>
+      <c r="R34">
+        <v>0.9997031160526315</v>
+      </c>
+      <c r="S34">
+        <v>0.9997031160526315</v>
+      </c>
+      <c r="T34">
+        <v>0.9998944456140348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.039217825430477</v>
+      </c>
+      <c r="D35">
+        <v>0.9901955498407475</v>
+      </c>
+      <c r="E35">
+        <v>1.039217825430477</v>
+      </c>
+      <c r="F35">
+        <v>0.9901955498407475</v>
+      </c>
+      <c r="G35">
+        <v>1.021569793797342</v>
+      </c>
+      <c r="H35">
+        <v>0.9738547960513873</v>
+      </c>
+      <c r="I35">
+        <v>0.9901955498407475</v>
+      </c>
+      <c r="J35">
+        <v>0.9901955498407475</v>
+      </c>
+      <c r="K35">
+        <v>0.9901955498407475</v>
+      </c>
+      <c r="L35">
+        <v>0.9901955498407475</v>
+      </c>
+      <c r="M35">
+        <v>1.014706687635612</v>
+      </c>
+      <c r="N35">
+        <v>1.014706687635612</v>
+      </c>
+      <c r="O35">
+        <v>1.016994389689522</v>
+      </c>
+      <c r="P35">
+        <v>1.006536308370657</v>
+      </c>
+      <c r="Q35">
+        <v>1.006536308370657</v>
+      </c>
+      <c r="R35">
+        <v>1.00245111873818</v>
+      </c>
+      <c r="S35">
+        <v>1.00245111873818</v>
+      </c>
+      <c r="T35">
+        <v>1.000871510800242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000004613765174</v>
+      </c>
+      <c r="D36">
+        <v>0.9999988494186139</v>
+      </c>
+      <c r="E36">
+        <v>1.000004613765174</v>
+      </c>
+      <c r="F36">
+        <v>0.9999988494186139</v>
+      </c>
+      <c r="G36">
+        <v>1.000002539075317</v>
+      </c>
+      <c r="H36">
+        <v>0.9999969221753151</v>
+      </c>
+      <c r="I36">
+        <v>0.9999988494186139</v>
+      </c>
+      <c r="J36">
+        <v>0.9999988494186139</v>
+      </c>
+      <c r="K36">
+        <v>0.9999988494186139</v>
+      </c>
+      <c r="L36">
+        <v>0.9999988494186139</v>
+      </c>
+      <c r="M36">
+        <v>1.000001731591894</v>
+      </c>
+      <c r="N36">
+        <v>1.000001731591894</v>
+      </c>
+      <c r="O36">
+        <v>1.000002000753035</v>
+      </c>
+      <c r="P36">
+        <v>1.000000770867467</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000770867467</v>
+      </c>
+      <c r="R36">
+        <v>1.000000290505254</v>
+      </c>
+      <c r="S36">
+        <v>1.000000290505254</v>
+      </c>
+      <c r="T36">
+        <v>1.000000103878608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000097711943654</v>
+      </c>
+      <c r="D37">
+        <v>0.9999755750148041</v>
+      </c>
+      <c r="E37">
+        <v>1.000097711943654</v>
+      </c>
+      <c r="F37">
+        <v>0.9999755750148041</v>
+      </c>
+      <c r="G37">
+        <v>1.000053742705463</v>
+      </c>
+      <c r="H37">
+        <v>0.999934856613431</v>
+      </c>
+      <c r="I37">
+        <v>0.9999755750148041</v>
+      </c>
+      <c r="J37">
+        <v>0.9999755750148041</v>
+      </c>
+      <c r="K37">
+        <v>0.9999755750148041</v>
+      </c>
+      <c r="L37">
+        <v>0.9999755750148041</v>
+      </c>
+      <c r="M37">
+        <v>1.000036643479229</v>
+      </c>
+      <c r="N37">
+        <v>1.000036643479229</v>
+      </c>
+      <c r="O37">
+        <v>1.000042343221307</v>
+      </c>
+      <c r="P37">
+        <v>1.000016287324421</v>
+      </c>
+      <c r="Q37">
+        <v>1.000016287324421</v>
+      </c>
+      <c r="R37">
+        <v>1.000006109247016</v>
+      </c>
+      <c r="S37">
+        <v>1.000006109247016</v>
+      </c>
+      <c r="T37">
+        <v>1.000002172717827</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000344015491539</v>
+      </c>
+      <c r="D38">
+        <v>0.9999140000561568</v>
+      </c>
+      <c r="E38">
+        <v>1.000344015491539</v>
+      </c>
+      <c r="F38">
+        <v>0.9999140000561568</v>
+      </c>
+      <c r="G38">
+        <v>1.000189207870203</v>
+      </c>
+      <c r="H38">
+        <v>0.9997706538884166</v>
+      </c>
+      <c r="I38">
+        <v>0.9999140000561568</v>
+      </c>
+      <c r="J38">
+        <v>0.9999140000561568</v>
+      </c>
+      <c r="K38">
+        <v>0.9999140000561568</v>
+      </c>
+      <c r="L38">
+        <v>0.9999140000561568</v>
+      </c>
+      <c r="M38">
+        <v>1.000129007773848</v>
+      </c>
+      <c r="N38">
+        <v>1.000129007773848</v>
+      </c>
+      <c r="O38">
+        <v>1.000149074472633</v>
+      </c>
+      <c r="P38">
+        <v>1.000057338534618</v>
+      </c>
+      <c r="Q38">
+        <v>1.000057338534618</v>
+      </c>
+      <c r="R38">
+        <v>1.000021503915002</v>
+      </c>
+      <c r="S38">
+        <v>1.000021503915002</v>
+      </c>
+      <c r="T38">
+        <v>1.000007646236438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000805920535411</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9997985191074612</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000805920535411</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9997985191074612</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000443256341843</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9994627142287678</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9997985191074612</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9997985191074612</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9997985191074612</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9997985191074612</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000302219821436</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000302219821436</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000349231994905</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000134319583444</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000134319583444</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000050369464449</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000050369464449</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000017908071401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9975805520969856</v>
+      </c>
+      <c r="D40">
+        <v>1.000604867506668</v>
+      </c>
+      <c r="E40">
+        <v>0.9975805520969856</v>
+      </c>
+      <c r="F40">
+        <v>1.000604867506668</v>
+      </c>
+      <c r="G40">
+        <v>0.9986693050850164</v>
+      </c>
+      <c r="H40">
+        <v>1.001612962705986</v>
+      </c>
+      <c r="I40">
+        <v>1.000604867506668</v>
+      </c>
+      <c r="J40">
+        <v>1.000604867506668</v>
+      </c>
+      <c r="K40">
+        <v>1.000604867506668</v>
+      </c>
+      <c r="L40">
+        <v>1.000604867506668</v>
+      </c>
+      <c r="M40">
+        <v>0.9990927098018266</v>
+      </c>
+      <c r="N40">
+        <v>0.9990927098018266</v>
+      </c>
+      <c r="O40">
+        <v>0.9989515748962233</v>
+      </c>
+      <c r="P40">
+        <v>0.999596762370107</v>
+      </c>
+      <c r="Q40">
+        <v>0.999596762370107</v>
+      </c>
+      <c r="R40">
+        <v>0.9998487886542471</v>
+      </c>
+      <c r="S40">
+        <v>0.9998487886542471</v>
+      </c>
+      <c r="T40">
+        <v>0.9999462370679986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000580975865127</v>
+      </c>
+      <c r="D41">
+        <v>0.999854758713616</v>
+      </c>
+      <c r="E41">
+        <v>1.000580975865127</v>
+      </c>
+      <c r="F41">
+        <v>0.999854758713616</v>
+      </c>
+      <c r="G41">
+        <v>1.000319539383452</v>
+      </c>
+      <c r="H41">
+        <v>0.9996126803754547</v>
+      </c>
+      <c r="I41">
+        <v>0.999854758713616</v>
+      </c>
+      <c r="J41">
+        <v>0.999854758713616</v>
+      </c>
+      <c r="K41">
+        <v>0.999854758713616</v>
+      </c>
+      <c r="L41">
+        <v>0.999854758713616</v>
+      </c>
+      <c r="M41">
+        <v>1.000217867289371</v>
+      </c>
+      <c r="N41">
+        <v>1.000217867289371</v>
+      </c>
+      <c r="O41">
+        <v>1.000251757987398</v>
+      </c>
+      <c r="P41">
+        <v>1.000096831097453</v>
+      </c>
+      <c r="Q41">
+        <v>1.000096831097453</v>
+      </c>
+      <c r="R41">
+        <v>1.000036313001494</v>
+      </c>
+      <c r="S41">
+        <v>1.000036313001494</v>
+      </c>
+      <c r="T41">
+        <v>1.000012911960813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.01399400812739</v>
+      </c>
+      <c r="D42">
+        <v>0.9965015014963411</v>
+      </c>
+      <c r="E42">
+        <v>1.01399400812739</v>
+      </c>
+      <c r="F42">
+        <v>0.9965015014963411</v>
+      </c>
+      <c r="G42">
+        <v>1.007696707764825</v>
+      </c>
+      <c r="H42">
+        <v>0.9906706569455164</v>
+      </c>
+      <c r="I42">
+        <v>0.9965015014963411</v>
+      </c>
+      <c r="J42">
+        <v>0.9965015014963411</v>
+      </c>
+      <c r="K42">
+        <v>0.9965015014963411</v>
+      </c>
+      <c r="L42">
+        <v>0.9965015014963411</v>
+      </c>
+      <c r="M42">
+        <v>1.005247754811866</v>
+      </c>
+      <c r="N42">
+        <v>1.005247754811866</v>
+      </c>
+      <c r="O42">
+        <v>1.006064072462852</v>
+      </c>
+      <c r="P42">
+        <v>1.002332337040024</v>
+      </c>
+      <c r="Q42">
+        <v>1.002332337040024</v>
+      </c>
+      <c r="R42">
+        <v>1.000874628154103</v>
+      </c>
+      <c r="S42">
+        <v>1.000874628154103</v>
+      </c>
+      <c r="T42">
+        <v>1.000310979554459</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9997206722218996</v>
+        <v>1.000170471063384</v>
       </c>
       <c r="D3">
-        <v>1.001117322072471</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="E3">
-        <v>0.9997206722218996</v>
+        <v>1.000170471063384</v>
       </c>
       <c r="F3">
-        <v>0.9997206722218996</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="G3">
-        <v>0.9992551171206908</v>
+        <v>1.000093760686411</v>
       </c>
       <c r="H3">
-        <v>1.000614528104837</v>
+        <v>0.9998863506687469</v>
       </c>
       <c r="I3">
-        <v>0.9997206722218996</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="J3">
-        <v>1.001117322072471</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="K3">
-        <v>0.9997206722218996</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="L3">
-        <v>0.9997206722218996</v>
+        <v>0.9999573850403616</v>
       </c>
       <c r="M3">
-        <v>1.000418997147185</v>
+        <v>1.000063928051873</v>
       </c>
       <c r="N3">
-        <v>1.000418997147185</v>
+        <v>1.000063928051873</v>
       </c>
       <c r="O3">
-        <v>1.000484174133069</v>
+        <v>1.000073872263386</v>
       </c>
       <c r="P3">
-        <v>1.00018622217209</v>
+        <v>1.000028413714703</v>
       </c>
       <c r="Q3">
-        <v>1.00018622217209</v>
+        <v>1.000028413714703</v>
       </c>
       <c r="R3">
-        <v>1.000069834684542</v>
+        <v>1.000010656546117</v>
       </c>
       <c r="S3">
-        <v>1.000069834684542</v>
+        <v>1.000010656546117</v>
       </c>
       <c r="T3">
-        <v>1.000024830660616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>1.000003789589938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9994607575629819</v>
+        <v>0.9975805520969856</v>
       </c>
       <c r="D4">
-        <v>1.002156976843321</v>
+        <v>1.000604867506668</v>
       </c>
       <c r="E4">
-        <v>0.9994607575629819</v>
+        <v>0.9975805520969856</v>
       </c>
       <c r="F4">
-        <v>0.9994607575629819</v>
+        <v>1.000604867506668</v>
       </c>
       <c r="G4">
-        <v>0.9985620150176987</v>
+        <v>0.9986693050850164</v>
       </c>
       <c r="H4">
-        <v>1.001186337361323</v>
+        <v>1.001612962705986</v>
       </c>
       <c r="I4">
-        <v>0.9994607575629819</v>
+        <v>1.000604867506668</v>
       </c>
       <c r="J4">
-        <v>1.002156976843321</v>
+        <v>1.000604867506668</v>
       </c>
       <c r="K4">
-        <v>0.9994607575629819</v>
+        <v>1.000604867506668</v>
       </c>
       <c r="L4">
-        <v>0.9994607575629819</v>
+        <v>1.000604867506668</v>
       </c>
       <c r="M4">
-        <v>1.000808867203151</v>
+        <v>0.9990927098018266</v>
       </c>
       <c r="N4">
-        <v>1.000808867203151</v>
+        <v>0.9990927098018266</v>
       </c>
       <c r="O4">
-        <v>1.000934690589209</v>
+        <v>0.9989515748962233</v>
       </c>
       <c r="P4">
-        <v>1.000359497323095</v>
+        <v>0.999596762370107</v>
       </c>
       <c r="Q4">
-        <v>1.000359497323095</v>
+        <v>0.999596762370107</v>
       </c>
       <c r="R4">
-        <v>1.000134812383067</v>
+        <v>0.9998487886542471</v>
       </c>
       <c r="S4">
-        <v>1.000134812383067</v>
+        <v>0.9998487886542471</v>
       </c>
       <c r="T4">
-        <v>1.000047933651881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9999462370679986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.998966601273922</v>
+        <v>1.011466223984149</v>
       </c>
       <c r="D5">
-        <v>1.004133579339035</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="E5">
-        <v>0.998966601273922</v>
+        <v>1.011466223984149</v>
       </c>
       <c r="F5">
-        <v>0.998966601273922</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="G5">
-        <v>0.9972442809000512</v>
+        <v>1.006306422211817</v>
       </c>
       <c r="H5">
-        <v>1.002273469607788</v>
+        <v>0.9923558510446716</v>
       </c>
       <c r="I5">
-        <v>0.998966601273922</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="J5">
-        <v>1.004133579339035</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="K5">
-        <v>0.998966601273922</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="L5">
-        <v>0.998966601273922</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="M5">
-        <v>1.001550090306478</v>
+        <v>1.004299835335013</v>
       </c>
       <c r="N5">
-        <v>1.001550090306478</v>
+        <v>1.004299835335013</v>
       </c>
       <c r="O5">
-        <v>1.001791216740249</v>
+        <v>1.004968697627281</v>
       </c>
       <c r="P5">
-        <v>1.000688927295626</v>
+        <v>1.001911039118635</v>
       </c>
       <c r="Q5">
-        <v>1.000688927295626</v>
+        <v>1.001911039118635</v>
       </c>
       <c r="R5">
-        <v>1.0002583457902</v>
+        <v>1.000716641010445</v>
       </c>
       <c r="S5">
-        <v>1.0002583457902</v>
+        <v>1.000716641010445</v>
       </c>
       <c r="T5">
-        <v>1.00009185561144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.000254806216379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9984843456877495</v>
+        <v>1.039217825430477</v>
       </c>
       <c r="D6">
-        <v>1.006062646215451</v>
+        <v>0.9901955498407475</v>
       </c>
       <c r="E6">
-        <v>0.9984843456877495</v>
+        <v>1.039217825430477</v>
       </c>
       <c r="F6">
-        <v>0.9984843456877495</v>
+        <v>0.9901955498407475</v>
       </c>
       <c r="G6">
-        <v>0.9959582380292011</v>
+        <v>1.021569793797342</v>
       </c>
       <c r="H6">
-        <v>1.003334452399023</v>
+        <v>0.9738547960513873</v>
       </c>
       <c r="I6">
-        <v>0.9984843456877495</v>
+        <v>0.9901955498407475</v>
       </c>
       <c r="J6">
-        <v>1.006062646215451</v>
+        <v>0.9901955498407475</v>
       </c>
       <c r="K6">
-        <v>0.9984843456877495</v>
+        <v>0.9901955498407475</v>
       </c>
       <c r="L6">
-        <v>0.9984843456877495</v>
+        <v>0.9901955498407475</v>
       </c>
       <c r="M6">
-        <v>1.0022734959516</v>
+        <v>1.014706687635612</v>
       </c>
       <c r="N6">
-        <v>1.0022734959516</v>
+        <v>1.014706687635612</v>
       </c>
       <c r="O6">
-        <v>1.002627148100741</v>
+        <v>1.016994389689522</v>
       </c>
       <c r="P6">
-        <v>1.00101044586365</v>
+        <v>1.006536308370657</v>
       </c>
       <c r="Q6">
-        <v>1.00101044586365</v>
+        <v>1.006536308370657</v>
       </c>
       <c r="R6">
-        <v>1.000378920819675</v>
+        <v>1.00245111873818</v>
       </c>
       <c r="S6">
-        <v>1.000378920819675</v>
+        <v>1.00245111873818</v>
       </c>
       <c r="T6">
-        <v>1.000134728951154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.000871510800242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999816962823789</v>
+        <v>1.001154214523949</v>
       </c>
       <c r="D7">
-        <v>1.000073226437473</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="E7">
-        <v>0.9999816962823789</v>
+        <v>1.001154214523949</v>
       </c>
       <c r="F7">
-        <v>0.9999816962823789</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="G7">
-        <v>0.999951180495866</v>
+        <v>1.000634818574399</v>
       </c>
       <c r="H7">
-        <v>1.000040276042921</v>
+        <v>0.9992305226787018</v>
       </c>
       <c r="I7">
-        <v>0.9999816962823789</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="J7">
-        <v>1.000073226437473</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="K7">
-        <v>0.9999816962823789</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="L7">
-        <v>0.9999816962823789</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="M7">
-        <v>1.000027461359926</v>
+        <v>1.000432831928497</v>
       </c>
       <c r="N7">
-        <v>1.000027461359926</v>
+        <v>1.000432831928497</v>
       </c>
       <c r="O7">
-        <v>1.000031732920924</v>
+        <v>1.000500160810464</v>
       </c>
       <c r="P7">
-        <v>1.000012206334077</v>
+        <v>1.000192371063346</v>
       </c>
       <c r="Q7">
-        <v>1.000012206334077</v>
+        <v>1.000192371063346</v>
       </c>
       <c r="R7">
-        <v>1.000004578821152</v>
+        <v>1.000072140630771</v>
       </c>
       <c r="S7">
-        <v>1.000004578821152</v>
+        <v>1.000072140630771</v>
       </c>
       <c r="T7">
-        <v>1.000001628637233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>1.000025650629364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999573850403615</v>
+        <v>1.000097711943654</v>
       </c>
       <c r="D8">
-        <v>1.000170471063385</v>
+        <v>0.9999755750148041</v>
       </c>
       <c r="E8">
-        <v>0.9999573850403615</v>
+        <v>1.000097711943654</v>
       </c>
       <c r="F8">
-        <v>0.9999573850403615</v>
+        <v>0.9999755750148041</v>
       </c>
       <c r="G8">
-        <v>0.9998863506687469</v>
+        <v>1.000053742705463</v>
       </c>
       <c r="H8">
-        <v>1.000093760686411</v>
+        <v>0.999934856613431</v>
       </c>
       <c r="I8">
-        <v>0.9999573850403615</v>
+        <v>0.9999755750148041</v>
       </c>
       <c r="J8">
-        <v>1.000170471063385</v>
+        <v>0.9999755750148041</v>
       </c>
       <c r="K8">
-        <v>0.9999573850403615</v>
+        <v>0.9999755750148041</v>
       </c>
       <c r="L8">
-        <v>0.9999573850403615</v>
+        <v>0.9999755750148041</v>
       </c>
       <c r="M8">
-        <v>1.000063928051873</v>
+        <v>1.000036643479229</v>
       </c>
       <c r="N8">
-        <v>1.000063928051873</v>
+        <v>1.000036643479229</v>
       </c>
       <c r="O8">
-        <v>1.000073872263386</v>
+        <v>1.000042343221307</v>
       </c>
       <c r="P8">
-        <v>1.000028413714703</v>
+        <v>1.000016287324421</v>
       </c>
       <c r="Q8">
-        <v>1.000028413714703</v>
+        <v>1.000016287324421</v>
       </c>
       <c r="R8">
-        <v>1.000010656546117</v>
+        <v>1.000006109247016</v>
       </c>
       <c r="S8">
-        <v>1.000010656546117</v>
+        <v>1.000006109247016</v>
       </c>
       <c r="T8">
-        <v>1.000003789589938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>1.000002172717827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999432361174779</v>
+        <v>1.002156976843321</v>
       </c>
       <c r="D9">
-        <v>1.000227067333073</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="E9">
-        <v>0.9999432361174779</v>
+        <v>1.002156976843321</v>
       </c>
       <c r="F9">
-        <v>0.9999432361174779</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="G9">
-        <v>0.999848620260309</v>
+        <v>1.001186337361323</v>
       </c>
       <c r="H9">
-        <v>1.000124888259217</v>
+        <v>0.9985620150176987</v>
       </c>
       <c r="I9">
-        <v>0.9999432361174779</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="J9">
-        <v>1.000227067333073</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="K9">
-        <v>0.9999432361174779</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="L9">
-        <v>0.9999432361174779</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="M9">
-        <v>1.000085151725276</v>
+        <v>1.000808867203151</v>
       </c>
       <c r="N9">
-        <v>1.000085151725276</v>
+        <v>1.000808867203151</v>
       </c>
       <c r="O9">
-        <v>1.00009839723659</v>
+        <v>1.000934690589209</v>
       </c>
       <c r="P9">
-        <v>1.000037846522676</v>
+        <v>1.000359497323095</v>
       </c>
       <c r="Q9">
-        <v>1.000037846522676</v>
+        <v>1.000359497323095</v>
       </c>
       <c r="R9">
-        <v>1.000014193921377</v>
+        <v>1.000134812383067</v>
       </c>
       <c r="S9">
-        <v>1.000014193921377</v>
+        <v>1.000134812383067</v>
       </c>
       <c r="T9">
-        <v>1.000005047367506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>1.000047933651881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9998747569432196</v>
+        <v>1.039802086911483</v>
       </c>
       <c r="D10">
-        <v>1.000500983649405</v>
+        <v>0.9900494840197238</v>
       </c>
       <c r="E10">
-        <v>0.9998747569432196</v>
+        <v>1.039802086911483</v>
       </c>
       <c r="F10">
-        <v>0.9998747569432196</v>
+        <v>0.9900494840197238</v>
       </c>
       <c r="G10">
-        <v>0.9996660091716167</v>
+        <v>1.021891136792999</v>
       </c>
       <c r="H10">
-        <v>1.000275541926569</v>
+        <v>0.9734652886937448</v>
       </c>
       <c r="I10">
-        <v>0.9998747569432196</v>
+        <v>0.9900494840197238</v>
       </c>
       <c r="J10">
-        <v>1.000500983649405</v>
+        <v>0.9900494840197238</v>
       </c>
       <c r="K10">
-        <v>0.9998747569432196</v>
+        <v>0.9900494840197238</v>
       </c>
       <c r="L10">
-        <v>0.9998747569432196</v>
+        <v>0.9900494840197238</v>
       </c>
       <c r="M10">
-        <v>1.000187870296312</v>
+        <v>1.014925785465603</v>
       </c>
       <c r="N10">
-        <v>1.000187870296312</v>
+        <v>1.014925785465603</v>
       </c>
       <c r="O10">
-        <v>1.000217094173065</v>
+        <v>1.017247569241402</v>
       </c>
       <c r="P10">
-        <v>1.000083499178615</v>
+        <v>1.006633684983643</v>
       </c>
       <c r="Q10">
-        <v>1.000083499178615</v>
+        <v>1.006633684983643</v>
       </c>
       <c r="R10">
-        <v>1.000031313619766</v>
+        <v>1.002487634742663</v>
       </c>
       <c r="S10">
-        <v>1.000031313619766</v>
+        <v>1.002487634742663</v>
       </c>
       <c r="T10">
-        <v>1.000011134262875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.000884494076233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9998006093776571</v>
+        <v>1.000970352907072</v>
       </c>
       <c r="D11">
-        <v>1.000797576076363</v>
+        <v>0.9997574155967349</v>
       </c>
       <c r="E11">
-        <v>0.9998006093776571</v>
+        <v>1.000970352907072</v>
       </c>
       <c r="F11">
-        <v>0.9998006093776571</v>
+        <v>0.9997574155967349</v>
       </c>
       <c r="G11">
-        <v>0.9994682814220481</v>
+        <v>1.000533696614492</v>
       </c>
       <c r="H11">
-        <v>1.000438668775437</v>
+        <v>0.999353094347977</v>
       </c>
       <c r="I11">
-        <v>0.9998006093776571</v>
+        <v>0.9997574155967349</v>
       </c>
       <c r="J11">
-        <v>1.000797576076363</v>
+        <v>0.9997574155967349</v>
       </c>
       <c r="K11">
-        <v>0.9998006093776571</v>
+        <v>0.9997574155967349</v>
       </c>
       <c r="L11">
-        <v>0.9998006093776571</v>
+        <v>0.9997574155967349</v>
       </c>
       <c r="M11">
-        <v>1.00029909272701</v>
+        <v>1.000363884251904</v>
       </c>
       <c r="N11">
-        <v>1.00029909272701</v>
+        <v>1.000363884251904</v>
       </c>
       <c r="O11">
-        <v>1.000345618076486</v>
+        <v>1.000420488372766</v>
       </c>
       <c r="P11">
-        <v>1.000132931610559</v>
+        <v>1.000161728033514</v>
       </c>
       <c r="Q11">
-        <v>1.000132931610559</v>
+        <v>1.000161728033514</v>
       </c>
       <c r="R11">
-        <v>1.000049851052334</v>
+        <v>1.000060649924319</v>
       </c>
       <c r="S11">
-        <v>1.000049851052334</v>
+        <v>1.000060649924319</v>
       </c>
       <c r="T11">
-        <v>1.00001772573447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>1.000021565109958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.00134182536628</v>
+        <v>1.011853627989476</v>
       </c>
       <c r="D12">
-        <v>0.9946327119583072</v>
+        <v>0.9970365952421013</v>
       </c>
       <c r="E12">
-        <v>1.00134182536628</v>
+        <v>1.011853627989476</v>
       </c>
       <c r="F12">
-        <v>1.00134182536628</v>
+        <v>0.9970365952421013</v>
       </c>
       <c r="G12">
-        <v>1.0035781878889</v>
+        <v>1.006519492873684</v>
       </c>
       <c r="H12">
-        <v>0.9970479963749214</v>
+        <v>0.9920975826210511</v>
       </c>
       <c r="I12">
-        <v>1.00134182536628</v>
+        <v>0.9970365952421013</v>
       </c>
       <c r="J12">
-        <v>0.9946327119583072</v>
+        <v>0.9970365952421013</v>
       </c>
       <c r="K12">
-        <v>1.00134182536628</v>
+        <v>0.9970365952421013</v>
       </c>
       <c r="L12">
-        <v>1.00134182536628</v>
+        <v>0.9970365952421013</v>
       </c>
       <c r="M12">
-        <v>0.9979872686622936</v>
+        <v>1.004445111615789</v>
       </c>
       <c r="N12">
-        <v>0.9979872686622936</v>
+        <v>1.004445111615789</v>
       </c>
       <c r="O12">
-        <v>0.9976741778998361</v>
+        <v>1.005136572035087</v>
       </c>
       <c r="P12">
-        <v>0.9991054542302891</v>
+        <v>1.001975606157893</v>
       </c>
       <c r="Q12">
-        <v>0.9991054542302891</v>
+        <v>1.001975606157893</v>
       </c>
       <c r="R12">
-        <v>0.9996645470142869</v>
+        <v>1.000740853428945</v>
       </c>
       <c r="S12">
-        <v>0.9996645470142869</v>
+        <v>1.000740853428945</v>
       </c>
       <c r="T12">
-        <v>0.9998807287201615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.000263414868419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000344344972705</v>
+        <v>0.9921719783099221</v>
       </c>
       <c r="D13">
-        <v>0.9986226192190829</v>
+        <v>1.001957007557943</v>
       </c>
       <c r="E13">
-        <v>1.000344344972705</v>
+        <v>0.9921719783099221</v>
       </c>
       <c r="F13">
-        <v>1.000344344972705</v>
+        <v>1.001957007557943</v>
       </c>
       <c r="G13">
-        <v>1.000918247480899</v>
+        <v>0.9956945875163803</v>
       </c>
       <c r="H13">
-        <v>0.9992424376947757</v>
+        <v>1.00521867911804</v>
       </c>
       <c r="I13">
-        <v>1.000344344972705</v>
+        <v>1.001957007557943</v>
       </c>
       <c r="J13">
-        <v>0.9986226192190829</v>
+        <v>1.001957007557943</v>
       </c>
       <c r="K13">
-        <v>1.000344344972705</v>
+        <v>1.001957007557943</v>
       </c>
       <c r="L13">
-        <v>1.000344344972705</v>
+        <v>1.001957007557943</v>
       </c>
       <c r="M13">
-        <v>0.9994834820958938</v>
+        <v>0.9970644929339326</v>
       </c>
       <c r="N13">
-        <v>0.9994834820958938</v>
+        <v>0.9970644929339326</v>
       </c>
       <c r="O13">
-        <v>0.9994031339621877</v>
+        <v>0.9966078577947485</v>
       </c>
       <c r="P13">
-        <v>0.9997704363881641</v>
+        <v>0.9986953311419361</v>
       </c>
       <c r="Q13">
-        <v>0.9997704363881641</v>
+        <v>0.9986953311419361</v>
       </c>
       <c r="R13">
-        <v>0.9999139135342993</v>
+        <v>0.9995107502459378</v>
       </c>
       <c r="S13">
-        <v>0.9999139135342993</v>
+        <v>0.9995107502459378</v>
       </c>
       <c r="T13">
-        <v>0.9999693898854787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>0.9998260446030285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.003164008499625</v>
+        <v>1.068766400000001</v>
       </c>
       <c r="D14">
-        <v>0.9873439627911564</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="E14">
-        <v>1.003164008499625</v>
+        <v>1.068766400000001</v>
       </c>
       <c r="F14">
-        <v>1.003164008499625</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="G14">
-        <v>1.00843735622691</v>
+        <v>1.037821500000001</v>
       </c>
       <c r="H14">
-        <v>0.993039178010384</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="I14">
-        <v>1.003164008499625</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="J14">
-        <v>0.9873439627911564</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="K14">
-        <v>1.003164008499625</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="L14">
-        <v>1.003164008499625</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="M14">
-        <v>0.9952539856453909</v>
+        <v>1.025787405</v>
       </c>
       <c r="N14">
-        <v>0.9952539856453909</v>
+        <v>1.025787405</v>
       </c>
       <c r="O14">
-        <v>0.9945157164337219</v>
+        <v>1.02979877</v>
       </c>
       <c r="P14">
-        <v>0.9978906599301357</v>
+        <v>1.011461073333333</v>
       </c>
       <c r="Q14">
-        <v>0.9978906599301357</v>
+        <v>1.011461073333333</v>
       </c>
       <c r="R14">
-        <v>0.9992089970725081</v>
+        <v>1.0042979075</v>
       </c>
       <c r="S14">
-        <v>0.9992089970725081</v>
+        <v>1.0042979075</v>
       </c>
       <c r="T14">
-        <v>0.9997187537545544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.001528148333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000819011752151</v>
+        <v>0.98280841</v>
       </c>
       <c r="D15">
-        <v>0.9967239804633086</v>
+        <v>1.0042979</v>
       </c>
       <c r="E15">
-        <v>1.000819011752151</v>
+        <v>0.98280841</v>
       </c>
       <c r="F15">
-        <v>1.000819011752151</v>
+        <v>1.0042979</v>
       </c>
       <c r="G15">
-        <v>1.002184013118497</v>
+        <v>0.99054463</v>
       </c>
       <c r="H15">
-        <v>0.9981981847890377</v>
+        <v>1.0114611</v>
       </c>
       <c r="I15">
-        <v>1.000819011752151</v>
+        <v>1.0042979</v>
       </c>
       <c r="J15">
-        <v>0.9967239804633086</v>
+        <v>1.0042979</v>
       </c>
       <c r="K15">
-        <v>1.000819011752151</v>
+        <v>1.0042979</v>
       </c>
       <c r="L15">
-        <v>1.000819011752151</v>
+        <v>1.0042979</v>
       </c>
       <c r="M15">
-        <v>0.9987714961077296</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N15">
-        <v>0.9987714961077296</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O15">
-        <v>0.9985803923348323</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P15">
-        <v>0.9994540013225367</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q15">
-        <v>0.9994540013225367</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R15">
-        <v>0.9997952539299402</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S15">
-        <v>0.9997952539299402</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T15">
-        <v>0.9999272022712159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9996179733333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999988494186139</v>
+        <v>0.98280841</v>
       </c>
       <c r="D16">
-        <v>1.000004613765174</v>
+        <v>1.0042979</v>
       </c>
       <c r="E16">
-        <v>0.9999988494186139</v>
+        <v>0.98280841</v>
       </c>
       <c r="F16">
-        <v>0.9999988494186139</v>
+        <v>1.0042979</v>
       </c>
       <c r="G16">
-        <v>0.9999969221753151</v>
+        <v>0.99054463</v>
       </c>
       <c r="H16">
-        <v>1.000002539075317</v>
+        <v>1.0114611</v>
       </c>
       <c r="I16">
-        <v>0.9999988494186139</v>
+        <v>1.0042979</v>
       </c>
       <c r="J16">
-        <v>1.000004613765174</v>
+        <v>1.0042979</v>
       </c>
       <c r="K16">
-        <v>0.9999988494186139</v>
+        <v>1.0042979</v>
       </c>
       <c r="L16">
-        <v>0.9999988494186139</v>
+        <v>1.0042979</v>
       </c>
       <c r="M16">
-        <v>1.000001731591894</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N16">
-        <v>1.000001731591894</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O16">
-        <v>1.000002000753035</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P16">
-        <v>1.000000770867467</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q16">
-        <v>1.000000770867467</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R16">
-        <v>1.000000290505254</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S16">
-        <v>1.000000290505254</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T16">
-        <v>1.000000103878608</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999755750148041</v>
+        <v>0.9559465499999998</v>
       </c>
       <c r="D17">
-        <v>1.000097711943654</v>
+        <v>1.0110134</v>
       </c>
       <c r="E17">
-        <v>0.9999755750148041</v>
+        <v>0.9559465499999998</v>
       </c>
       <c r="F17">
-        <v>0.9999755750148041</v>
+        <v>1.0110134</v>
       </c>
       <c r="G17">
-        <v>0.999934856613431</v>
+        <v>0.9757706</v>
       </c>
       <c r="H17">
-        <v>1.000053742705463</v>
+        <v>1.029369</v>
       </c>
       <c r="I17">
-        <v>0.9999755750148041</v>
+        <v>1.0110134</v>
       </c>
       <c r="J17">
-        <v>1.000097711943654</v>
+        <v>1.0110134</v>
       </c>
       <c r="K17">
-        <v>0.9999755750148041</v>
+        <v>1.0110134</v>
       </c>
       <c r="L17">
-        <v>0.9999755750148041</v>
+        <v>1.0110134</v>
       </c>
       <c r="M17">
-        <v>1.000036643479229</v>
+        <v>0.9834799749999998</v>
       </c>
       <c r="N17">
-        <v>1.000036643479229</v>
+        <v>0.9834799749999998</v>
       </c>
       <c r="O17">
-        <v>1.000042343221307</v>
+        <v>0.9809101833333332</v>
       </c>
       <c r="P17">
-        <v>1.000016287324421</v>
+        <v>0.9926577833333332</v>
       </c>
       <c r="Q17">
-        <v>1.000016287324421</v>
+        <v>0.9926577833333332</v>
       </c>
       <c r="R17">
-        <v>1.000006109247016</v>
+        <v>0.9972466874999999</v>
       </c>
       <c r="S17">
-        <v>1.000006109247016</v>
+        <v>0.9972466874999999</v>
       </c>
       <c r="T17">
-        <v>1.000002172717827</v>
+        <v>0.9990210583333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999140000561568</v>
+        <v>1.025198640684932</v>
       </c>
       <c r="D18">
-        <v>1.000344015491539</v>
+        <v>0.9937003410958907</v>
       </c>
       <c r="E18">
-        <v>0.9999140000561568</v>
+        <v>1.025198640684932</v>
       </c>
       <c r="F18">
-        <v>0.9999140000561568</v>
+        <v>0.9937003410958907</v>
       </c>
       <c r="G18">
-        <v>0.9997706538884162</v>
+        <v>1.013859245342465</v>
       </c>
       <c r="H18">
-        <v>1.000189207870203</v>
+        <v>0.9832009115068501</v>
       </c>
       <c r="I18">
-        <v>0.9999140000561568</v>
+        <v>0.9937003410958907</v>
       </c>
       <c r="J18">
-        <v>1.000344015491539</v>
+        <v>0.9937003410958907</v>
       </c>
       <c r="K18">
-        <v>0.9999140000561568</v>
+        <v>0.9937003410958907</v>
       </c>
       <c r="L18">
-        <v>0.9999140000561568</v>
+        <v>0.9937003410958907</v>
       </c>
       <c r="M18">
-        <v>1.000129007773848</v>
+        <v>1.009449490890411</v>
       </c>
       <c r="N18">
-        <v>1.000129007773848</v>
+        <v>1.009449490890411</v>
       </c>
       <c r="O18">
-        <v>1.000149074472633</v>
+        <v>1.010919409041096</v>
       </c>
       <c r="P18">
-        <v>1.000057338534618</v>
+        <v>1.004199774292238</v>
       </c>
       <c r="Q18">
-        <v>1.000057338534618</v>
+        <v>1.004199774292238</v>
       </c>
       <c r="R18">
-        <v>1.000021503915002</v>
+        <v>1.001574915993151</v>
       </c>
       <c r="S18">
-        <v>1.000021503915002</v>
+        <v>1.001574915993151</v>
       </c>
       <c r="T18">
-        <v>1.000007646236438</v>
+        <v>1.000559970136986</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9997985191074612</v>
+        <v>0.9952496973684211</v>
       </c>
       <c r="D19">
-        <v>1.000805920535412</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="E19">
-        <v>0.9997985191074612</v>
+        <v>0.9952496973684211</v>
       </c>
       <c r="F19">
-        <v>0.9997985191074612</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="G19">
-        <v>0.9994627142287678</v>
+        <v>0.9973873331578946</v>
       </c>
       <c r="H19">
-        <v>1.000443256341843</v>
+        <v>1.003166876315789</v>
       </c>
       <c r="I19">
-        <v>0.9997985191074612</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="J19">
-        <v>1.000805920535412</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="K19">
-        <v>0.9997985191074612</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="L19">
-        <v>0.9997985191074612</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="M19">
-        <v>1.000302219821436</v>
+        <v>0.9982186431578947</v>
       </c>
       <c r="N19">
-        <v>1.000302219821436</v>
+        <v>0.9982186431578947</v>
       </c>
       <c r="O19">
-        <v>1.000349231994905</v>
+        <v>0.9979415398245614</v>
       </c>
       <c r="P19">
-        <v>1.000134319583445</v>
+        <v>0.9992082917543859</v>
       </c>
       <c r="Q19">
-        <v>1.000134319583445</v>
+        <v>0.9992082917543859</v>
       </c>
       <c r="R19">
-        <v>1.000050369464449</v>
+        <v>0.9997031160526315</v>
       </c>
       <c r="S19">
-        <v>1.000050369464449</v>
+        <v>0.9997031160526315</v>
       </c>
       <c r="T19">
-        <v>1.000017908071401</v>
+        <v>0.9998944456140348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9952496973684211</v>
+      </c>
+      <c r="D20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="E20">
+        <v>0.9952496973684211</v>
+      </c>
+      <c r="F20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="G20">
+        <v>0.9973873331578946</v>
+      </c>
+      <c r="H20">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="I20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="J20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="K20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="L20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="M20">
+        <v>0.9982186431578947</v>
+      </c>
+      <c r="N20">
+        <v>0.9982186431578947</v>
+      </c>
+      <c r="O20">
+        <v>0.9979415398245614</v>
+      </c>
+      <c r="P20">
+        <v>0.9992082917543859</v>
+      </c>
+      <c r="Q20">
+        <v>0.9992082917543859</v>
+      </c>
+      <c r="R20">
+        <v>0.9997031160526315</v>
+      </c>
+      <c r="S20">
+        <v>0.9997031160526315</v>
+      </c>
+      <c r="T20">
+        <v>0.9998944456140348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="D21">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="E21">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="F21">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="G21">
+        <v>0.993039178010384</v>
+      </c>
+      <c r="H21">
+        <v>1.00843735622691</v>
+      </c>
+      <c r="I21">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="J21">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="K21">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="L21">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="M21">
+        <v>0.9952539856453908</v>
+      </c>
+      <c r="N21">
+        <v>0.9952539856453908</v>
+      </c>
+      <c r="O21">
+        <v>0.9945157164337219</v>
+      </c>
+      <c r="P21">
+        <v>0.9978906599301357</v>
+      </c>
+      <c r="Q21">
+        <v>0.9978906599301357</v>
+      </c>
+      <c r="R21">
+        <v>0.9992089970725081</v>
+      </c>
+      <c r="S21">
+        <v>0.9992089970725081</v>
+      </c>
+      <c r="T21">
+        <v>0.9997187537545544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9967239804633086</v>
+      </c>
+      <c r="D22">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="E22">
+        <v>0.9967239804633086</v>
+      </c>
+      <c r="F22">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="G22">
+        <v>0.9981981847890377</v>
+      </c>
+      <c r="H22">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="I22">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="J22">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="K22">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="L22">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="M22">
+        <v>0.9987714961077296</v>
+      </c>
+      <c r="N22">
+        <v>0.9987714961077296</v>
+      </c>
+      <c r="O22">
+        <v>0.9985803923348323</v>
+      </c>
+      <c r="P22">
+        <v>0.9994540013225367</v>
+      </c>
+      <c r="Q22">
+        <v>0.9994540013225367</v>
+      </c>
+      <c r="R22">
+        <v>0.9997952539299402</v>
+      </c>
+      <c r="S22">
+        <v>0.9997952539299402</v>
+      </c>
+      <c r="T22">
+        <v>0.9999272022712159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.994632711958307</v>
+      </c>
+      <c r="D23">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="E23">
+        <v>0.994632711958307</v>
+      </c>
+      <c r="F23">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="G23">
+        <v>0.9970479963749214</v>
+      </c>
+      <c r="H23">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="I23">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="J23">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="K23">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="L23">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="M23">
+        <v>0.9979872686622937</v>
+      </c>
+      <c r="N23">
+        <v>0.9979872686622937</v>
+      </c>
+      <c r="O23">
+        <v>0.9976741778998363</v>
+      </c>
+      <c r="P23">
+        <v>0.9991054542302892</v>
+      </c>
+      <c r="Q23">
+        <v>0.9991054542302892</v>
+      </c>
+      <c r="R23">
+        <v>0.999664547014287</v>
+      </c>
+      <c r="S23">
+        <v>0.999664547014287</v>
+      </c>
+      <c r="T23">
+        <v>0.9998807287201616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9986226192190829</v>
+      </c>
+      <c r="D24">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="E24">
+        <v>0.9986226192190829</v>
+      </c>
+      <c r="F24">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="G24">
+        <v>0.9992424376947757</v>
+      </c>
+      <c r="H24">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="I24">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="J24">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="K24">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="L24">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="M24">
+        <v>0.9994834820958938</v>
+      </c>
+      <c r="N24">
+        <v>0.9994834820958938</v>
+      </c>
+      <c r="O24">
+        <v>0.9994031339621877</v>
+      </c>
+      <c r="P24">
+        <v>0.9997704363881641</v>
+      </c>
+      <c r="Q24">
+        <v>0.9997704363881641</v>
+      </c>
+      <c r="R24">
+        <v>0.9999139135342993</v>
+      </c>
+      <c r="S24">
+        <v>0.9999139135342993</v>
+      </c>
+      <c r="T24">
+        <v>0.9999693898854787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="D25">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="E25">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="F25">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="G25">
+        <v>0.9930391780103842</v>
+      </c>
+      <c r="H25">
+        <v>1.00843735622691</v>
+      </c>
+      <c r="I25">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="J25">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="K25">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="L25">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="M25">
+        <v>0.9952539856453908</v>
+      </c>
+      <c r="N25">
+        <v>0.9952539856453908</v>
+      </c>
+      <c r="O25">
+        <v>0.9945157164337219</v>
+      </c>
+      <c r="P25">
+        <v>0.9978906599301357</v>
+      </c>
+      <c r="Q25">
+        <v>0.9978906599301357</v>
+      </c>
+      <c r="R25">
+        <v>0.9992089970725081</v>
+      </c>
+      <c r="S25">
+        <v>0.9992089970725081</v>
+      </c>
+      <c r="T25">
+        <v>0.9997187537545544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9967239804633086</v>
+      </c>
+      <c r="D26">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="E26">
+        <v>0.9967239804633086</v>
+      </c>
+      <c r="F26">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="G26">
+        <v>0.9981981847890377</v>
+      </c>
+      <c r="H26">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="I26">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="J26">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="K26">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="L26">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="M26">
+        <v>0.9987714961077296</v>
+      </c>
+      <c r="N26">
+        <v>0.9987714961077296</v>
+      </c>
+      <c r="O26">
+        <v>0.9985803923348323</v>
+      </c>
+      <c r="P26">
+        <v>0.9994540013225367</v>
+      </c>
+      <c r="Q26">
+        <v>0.9994540013225367</v>
+      </c>
+      <c r="R26">
+        <v>0.9997952539299402</v>
+      </c>
+      <c r="S26">
+        <v>0.9997952539299402</v>
+      </c>
+      <c r="T26">
+        <v>0.9999272022712159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.004098485138982</v>
+      </c>
+      <c r="D27">
+        <v>0.9989753743605645</v>
+      </c>
+      <c r="E27">
+        <v>1.004098485138982</v>
+      </c>
+      <c r="F27">
+        <v>0.9989753743605645</v>
+      </c>
+      <c r="G27">
+        <v>1.002254149731226</v>
+      </c>
+      <c r="H27">
+        <v>0.9972676747452834</v>
+      </c>
+      <c r="I27">
+        <v>0.9989753743605645</v>
+      </c>
+      <c r="J27">
+        <v>0.9989753743605645</v>
+      </c>
+      <c r="K27">
+        <v>0.9989753743605645</v>
+      </c>
+      <c r="L27">
+        <v>0.9989753743605645</v>
+      </c>
+      <c r="M27">
+        <v>1.001536929749773</v>
+      </c>
+      <c r="N27">
+        <v>1.001536929749773</v>
+      </c>
+      <c r="O27">
+        <v>1.001776003076924</v>
+      </c>
+      <c r="P27">
+        <v>1.00068307795337</v>
+      </c>
+      <c r="Q27">
+        <v>1.00068307795337</v>
+      </c>
+      <c r="R27">
+        <v>1.000256152055169</v>
+      </c>
+      <c r="S27">
+        <v>1.000256152055169</v>
+      </c>
+      <c r="T27">
+        <v>1.000091072116198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9965993850692688</v>
+      </c>
+      <c r="D28">
+        <v>1.000850151534649</v>
+      </c>
+      <c r="E28">
+        <v>0.9965993850692688</v>
+      </c>
+      <c r="F28">
+        <v>1.000850151534649</v>
+      </c>
+      <c r="G28">
+        <v>0.9981296523092352</v>
+      </c>
+      <c r="H28">
+        <v>1.002267075518725</v>
+      </c>
+      <c r="I28">
+        <v>1.000850151534649</v>
+      </c>
+      <c r="J28">
+        <v>1.000850151534649</v>
+      </c>
+      <c r="K28">
+        <v>1.000850151534649</v>
+      </c>
+      <c r="L28">
+        <v>1.000850151534649</v>
+      </c>
+      <c r="M28">
+        <v>0.9987247683019587</v>
+      </c>
+      <c r="N28">
+        <v>0.9987247683019587</v>
+      </c>
+      <c r="O28">
+        <v>0.9985263963043841</v>
+      </c>
+      <c r="P28">
+        <v>0.9994332293795219</v>
+      </c>
+      <c r="Q28">
+        <v>0.9994332293795219</v>
+      </c>
+      <c r="R28">
+        <v>0.9997874599183036</v>
+      </c>
+      <c r="S28">
+        <v>0.9997874599183036</v>
+      </c>
+      <c r="T28">
+        <v>0.9999244279168624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.984126071295081</v>
+      </c>
+      <c r="D29">
+        <v>1.003968464835846</v>
+      </c>
+      <c r="E29">
+        <v>0.984126071295081</v>
+      </c>
+      <c r="F29">
+        <v>1.003968464835846</v>
+      </c>
+      <c r="G29">
+        <v>0.9912693289189471</v>
+      </c>
+      <c r="H29">
+        <v>1.010582613846295</v>
+      </c>
+      <c r="I29">
+        <v>1.003968464835846</v>
+      </c>
+      <c r="J29">
+        <v>1.003968464835846</v>
+      </c>
+      <c r="K29">
+        <v>1.003968464835846</v>
+      </c>
+      <c r="L29">
+        <v>1.003968464835846</v>
+      </c>
+      <c r="M29">
+        <v>0.9940472680654633</v>
+      </c>
+      <c r="N29">
+        <v>0.9940472680654633</v>
+      </c>
+      <c r="O29">
+        <v>0.9931212883499579</v>
+      </c>
+      <c r="P29">
+        <v>0.9973543336555908</v>
+      </c>
+      <c r="Q29">
+        <v>0.9973543336555908</v>
+      </c>
+      <c r="R29">
+        <v>0.9990078664506545</v>
+      </c>
+      <c r="S29">
+        <v>0.9990078664506545</v>
+      </c>
+      <c r="T29">
+        <v>0.9996472347613102</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9975805520969856</v>
+        <v>1.00998625026995</v>
       </c>
       <c r="D4">
-        <v>1.000604867506668</v>
+        <v>0.9975034398279493</v>
       </c>
       <c r="E4">
-        <v>0.9975805520969856</v>
+        <v>1.00998625026995</v>
       </c>
       <c r="F4">
-        <v>1.000604867506668</v>
+        <v>0.9975034398279493</v>
       </c>
       <c r="G4">
-        <v>0.9986693050850164</v>
+        <v>1.005492437353483</v>
       </c>
       <c r="H4">
-        <v>1.001612962705986</v>
+        <v>0.9933424992761747</v>
       </c>
       <c r="I4">
-        <v>1.000604867506668</v>
+        <v>0.9975034398279493</v>
       </c>
       <c r="J4">
-        <v>1.000604867506668</v>
+        <v>0.9975034398279493</v>
       </c>
       <c r="K4">
-        <v>1.000604867506668</v>
+        <v>0.9975034398279493</v>
       </c>
       <c r="L4">
-        <v>1.000604867506668</v>
+        <v>0.9975034398279493</v>
       </c>
       <c r="M4">
-        <v>0.9990927098018266</v>
+        <v>1.003744845048949</v>
       </c>
       <c r="N4">
-        <v>0.9990927098018266</v>
+        <v>1.003744845048949</v>
       </c>
       <c r="O4">
-        <v>0.9989515748962233</v>
+        <v>1.004327375817127</v>
       </c>
       <c r="P4">
-        <v>0.999596762370107</v>
+        <v>1.001664376641949</v>
       </c>
       <c r="Q4">
-        <v>0.999596762370107</v>
+        <v>1.001664376641949</v>
       </c>
       <c r="R4">
-        <v>0.9998487886542471</v>
+        <v>1.000624142438449</v>
       </c>
       <c r="S4">
-        <v>0.9998487886542471</v>
+        <v>1.000624142438449</v>
       </c>
       <c r="T4">
-        <v>0.9999462370679986</v>
+        <v>1.000221917730576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011466223984149</v>
+        <v>0.9896759103416382</v>
       </c>
       <c r="D5">
-        <v>0.9971334466858777</v>
+        <v>1.00258103614197</v>
       </c>
       <c r="E5">
-        <v>1.011466223984149</v>
+        <v>0.9896759103416382</v>
       </c>
       <c r="F5">
-        <v>0.9971334466858777</v>
+        <v>1.00258103614197</v>
       </c>
       <c r="G5">
-        <v>1.006306422211817</v>
+        <v>0.9943217518419771</v>
       </c>
       <c r="H5">
-        <v>0.9923558510446716</v>
+        <v>1.006882731978828</v>
       </c>
       <c r="I5">
-        <v>0.9971334466858777</v>
+        <v>1.00258103614197</v>
       </c>
       <c r="J5">
-        <v>0.9971334466858777</v>
+        <v>1.00258103614197</v>
       </c>
       <c r="K5">
-        <v>0.9971334466858777</v>
+        <v>1.00258103614197</v>
       </c>
       <c r="L5">
-        <v>0.9971334466858777</v>
+        <v>1.00258103614197</v>
       </c>
       <c r="M5">
-        <v>1.004299835335013</v>
+        <v>0.9961284732418039</v>
       </c>
       <c r="N5">
-        <v>1.004299835335013</v>
+        <v>0.9961284732418039</v>
       </c>
       <c r="O5">
-        <v>1.004968697627281</v>
+        <v>0.9955262327751949</v>
       </c>
       <c r="P5">
-        <v>1.001911039118635</v>
+        <v>0.9982793275418591</v>
       </c>
       <c r="Q5">
-        <v>1.001911039118635</v>
+        <v>0.9982793275418591</v>
       </c>
       <c r="R5">
-        <v>1.000716641010445</v>
+        <v>0.9993547546918867</v>
       </c>
       <c r="S5">
-        <v>1.000716641010445</v>
+        <v>0.9993547546918867</v>
       </c>
       <c r="T5">
-        <v>1.000254806216379</v>
+        <v>0.9997705837647253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.039217825430477</v>
+        <v>0.9975805520969856</v>
       </c>
       <c r="D6">
-        <v>0.9901955498407475</v>
+        <v>1.000604867506668</v>
       </c>
       <c r="E6">
-        <v>1.039217825430477</v>
+        <v>0.9975805520969856</v>
       </c>
       <c r="F6">
-        <v>0.9901955498407475</v>
+        <v>1.000604867506668</v>
       </c>
       <c r="G6">
-        <v>1.021569793797342</v>
+        <v>0.9986693050850164</v>
       </c>
       <c r="H6">
-        <v>0.9738547960513873</v>
+        <v>1.001612962705986</v>
       </c>
       <c r="I6">
-        <v>0.9901955498407475</v>
+        <v>1.000604867506668</v>
       </c>
       <c r="J6">
-        <v>0.9901955498407475</v>
+        <v>1.000604867506668</v>
       </c>
       <c r="K6">
-        <v>0.9901955498407475</v>
+        <v>1.000604867506668</v>
       </c>
       <c r="L6">
-        <v>0.9901955498407475</v>
+        <v>1.000604867506668</v>
       </c>
       <c r="M6">
-        <v>1.014706687635612</v>
+        <v>0.9990927098018266</v>
       </c>
       <c r="N6">
-        <v>1.014706687635612</v>
+        <v>0.9990927098018266</v>
       </c>
       <c r="O6">
-        <v>1.016994389689522</v>
+        <v>0.9989515748962233</v>
       </c>
       <c r="P6">
-        <v>1.006536308370657</v>
+        <v>0.999596762370107</v>
       </c>
       <c r="Q6">
-        <v>1.006536308370657</v>
+        <v>0.999596762370107</v>
       </c>
       <c r="R6">
-        <v>1.00245111873818</v>
+        <v>0.9998487886542471</v>
       </c>
       <c r="S6">
-        <v>1.00245111873818</v>
+        <v>0.9998487886542471</v>
       </c>
       <c r="T6">
-        <v>1.000871510800242</v>
+        <v>0.9999462370679986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001154214523949</v>
+        <v>1.011466223984149</v>
       </c>
       <c r="D7">
-        <v>0.999711449333045</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="E7">
-        <v>1.001154214523949</v>
+        <v>1.011466223984149</v>
       </c>
       <c r="F7">
-        <v>0.999711449333045</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="G7">
-        <v>1.000634818574399</v>
+        <v>1.006306422211817</v>
       </c>
       <c r="H7">
-        <v>0.9992305226787018</v>
+        <v>0.9923558510446716</v>
       </c>
       <c r="I7">
-        <v>0.999711449333045</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="J7">
-        <v>0.999711449333045</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="K7">
-        <v>0.999711449333045</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="L7">
-        <v>0.999711449333045</v>
+        <v>0.9971334466858777</v>
       </c>
       <c r="M7">
-        <v>1.000432831928497</v>
+        <v>1.004299835335013</v>
       </c>
       <c r="N7">
-        <v>1.000432831928497</v>
+        <v>1.004299835335013</v>
       </c>
       <c r="O7">
-        <v>1.000500160810464</v>
+        <v>1.004968697627281</v>
       </c>
       <c r="P7">
-        <v>1.000192371063346</v>
+        <v>1.001911039118635</v>
       </c>
       <c r="Q7">
-        <v>1.000192371063346</v>
+        <v>1.001911039118635</v>
       </c>
       <c r="R7">
-        <v>1.000072140630771</v>
+        <v>1.000716641010445</v>
       </c>
       <c r="S7">
-        <v>1.000072140630771</v>
+        <v>1.000716641010445</v>
       </c>
       <c r="T7">
-        <v>1.000025650629364</v>
+        <v>1.000254806216379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000097711943654</v>
+        <v>1.039217825430477</v>
       </c>
       <c r="D8">
-        <v>0.9999755750148041</v>
+        <v>0.9901955498407475</v>
       </c>
       <c r="E8">
-        <v>1.000097711943654</v>
+        <v>1.039217825430477</v>
       </c>
       <c r="F8">
-        <v>0.9999755750148041</v>
+        <v>0.9901955498407475</v>
       </c>
       <c r="G8">
-        <v>1.000053742705463</v>
+        <v>1.021569793797342</v>
       </c>
       <c r="H8">
-        <v>0.999934856613431</v>
+        <v>0.9738547960513873</v>
       </c>
       <c r="I8">
-        <v>0.9999755750148041</v>
+        <v>0.9901955498407475</v>
       </c>
       <c r="J8">
-        <v>0.9999755750148041</v>
+        <v>0.9901955498407475</v>
       </c>
       <c r="K8">
-        <v>0.9999755750148041</v>
+        <v>0.9901955498407475</v>
       </c>
       <c r="L8">
-        <v>0.9999755750148041</v>
+        <v>0.9901955498407475</v>
       </c>
       <c r="M8">
-        <v>1.000036643479229</v>
+        <v>1.014706687635612</v>
       </c>
       <c r="N8">
-        <v>1.000036643479229</v>
+        <v>1.014706687635612</v>
       </c>
       <c r="O8">
-        <v>1.000042343221307</v>
+        <v>1.016994389689522</v>
       </c>
       <c r="P8">
-        <v>1.000016287324421</v>
+        <v>1.006536308370657</v>
       </c>
       <c r="Q8">
-        <v>1.000016287324421</v>
+        <v>1.006536308370657</v>
       </c>
       <c r="R8">
-        <v>1.000006109247016</v>
+        <v>1.00245111873818</v>
       </c>
       <c r="S8">
-        <v>1.000006109247016</v>
+        <v>1.00245111873818</v>
       </c>
       <c r="T8">
-        <v>1.000002172717827</v>
+        <v>1.000871510800242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002156976843321</v>
+        <v>1.001154214523949</v>
       </c>
       <c r="D9">
-        <v>0.9994607575629819</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="E9">
-        <v>1.002156976843321</v>
+        <v>1.001154214523949</v>
       </c>
       <c r="F9">
-        <v>0.9994607575629819</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="G9">
-        <v>1.001186337361323</v>
+        <v>1.000634818574399</v>
       </c>
       <c r="H9">
-        <v>0.9985620150176987</v>
+        <v>0.9992305226787018</v>
       </c>
       <c r="I9">
-        <v>0.9994607575629819</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="J9">
-        <v>0.9994607575629819</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="K9">
-        <v>0.9994607575629819</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="L9">
-        <v>0.9994607575629819</v>
+        <v>0.999711449333045</v>
       </c>
       <c r="M9">
-        <v>1.000808867203151</v>
+        <v>1.000432831928497</v>
       </c>
       <c r="N9">
-        <v>1.000808867203151</v>
+        <v>1.000432831928497</v>
       </c>
       <c r="O9">
-        <v>1.000934690589209</v>
+        <v>1.000500160810464</v>
       </c>
       <c r="P9">
-        <v>1.000359497323095</v>
+        <v>1.000192371063346</v>
       </c>
       <c r="Q9">
-        <v>1.000359497323095</v>
+        <v>1.000192371063346</v>
       </c>
       <c r="R9">
-        <v>1.000134812383067</v>
+        <v>1.000072140630771</v>
       </c>
       <c r="S9">
-        <v>1.000134812383067</v>
+        <v>1.000072140630771</v>
       </c>
       <c r="T9">
-        <v>1.000047933651881</v>
+        <v>1.000025650629364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.039802086911483</v>
+        <v>1.000097711943654</v>
       </c>
       <c r="D10">
-        <v>0.9900494840197238</v>
+        <v>0.9999755750148041</v>
       </c>
       <c r="E10">
-        <v>1.039802086911483</v>
+        <v>1.000097711943654</v>
       </c>
       <c r="F10">
-        <v>0.9900494840197238</v>
+        <v>0.9999755750148041</v>
       </c>
       <c r="G10">
-        <v>1.021891136792999</v>
+        <v>1.000053742705463</v>
       </c>
       <c r="H10">
-        <v>0.9734652886937448</v>
+        <v>0.999934856613431</v>
       </c>
       <c r="I10">
-        <v>0.9900494840197238</v>
+        <v>0.9999755750148041</v>
       </c>
       <c r="J10">
-        <v>0.9900494840197238</v>
+        <v>0.9999755750148041</v>
       </c>
       <c r="K10">
-        <v>0.9900494840197238</v>
+        <v>0.9999755750148041</v>
       </c>
       <c r="L10">
-        <v>0.9900494840197238</v>
+        <v>0.9999755750148041</v>
       </c>
       <c r="M10">
-        <v>1.014925785465603</v>
+        <v>1.000036643479229</v>
       </c>
       <c r="N10">
-        <v>1.014925785465603</v>
+        <v>1.000036643479229</v>
       </c>
       <c r="O10">
-        <v>1.017247569241402</v>
+        <v>1.000042343221307</v>
       </c>
       <c r="P10">
-        <v>1.006633684983643</v>
+        <v>1.000016287324421</v>
       </c>
       <c r="Q10">
-        <v>1.006633684983643</v>
+        <v>1.000016287324421</v>
       </c>
       <c r="R10">
-        <v>1.002487634742663</v>
+        <v>1.000006109247016</v>
       </c>
       <c r="S10">
-        <v>1.002487634742663</v>
+        <v>1.000006109247016</v>
       </c>
       <c r="T10">
-        <v>1.000884494076233</v>
+        <v>1.000002172717827</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000970352907072</v>
+        <v>1.002156976843321</v>
       </c>
       <c r="D11">
-        <v>0.9997574155967349</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="E11">
-        <v>1.000970352907072</v>
+        <v>1.002156976843321</v>
       </c>
       <c r="F11">
-        <v>0.9997574155967349</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="G11">
-        <v>1.000533696614492</v>
+        <v>1.001186337361323</v>
       </c>
       <c r="H11">
-        <v>0.999353094347977</v>
+        <v>0.9985620150176987</v>
       </c>
       <c r="I11">
-        <v>0.9997574155967349</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="J11">
-        <v>0.9997574155967349</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="K11">
-        <v>0.9997574155967349</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="L11">
-        <v>0.9997574155967349</v>
+        <v>0.9994607575629819</v>
       </c>
       <c r="M11">
-        <v>1.000363884251904</v>
+        <v>1.000808867203151</v>
       </c>
       <c r="N11">
-        <v>1.000363884251904</v>
+        <v>1.000808867203151</v>
       </c>
       <c r="O11">
-        <v>1.000420488372766</v>
+        <v>1.000934690589209</v>
       </c>
       <c r="P11">
-        <v>1.000161728033514</v>
+        <v>1.000359497323095</v>
       </c>
       <c r="Q11">
-        <v>1.000161728033514</v>
+        <v>1.000359497323095</v>
       </c>
       <c r="R11">
-        <v>1.000060649924319</v>
+        <v>1.000134812383067</v>
       </c>
       <c r="S11">
-        <v>1.000060649924319</v>
+        <v>1.000134812383067</v>
       </c>
       <c r="T11">
-        <v>1.000021565109958</v>
+        <v>1.000047933651881</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.011853627989476</v>
+        <v>1.039802086911483</v>
       </c>
       <c r="D12">
-        <v>0.9970365952421013</v>
+        <v>0.9900494840197238</v>
       </c>
       <c r="E12">
-        <v>1.011853627989476</v>
+        <v>1.039802086911483</v>
       </c>
       <c r="F12">
-        <v>0.9970365952421013</v>
+        <v>0.9900494840197238</v>
       </c>
       <c r="G12">
-        <v>1.006519492873684</v>
+        <v>1.021891136792999</v>
       </c>
       <c r="H12">
-        <v>0.9920975826210511</v>
+        <v>0.9734652886937448</v>
       </c>
       <c r="I12">
-        <v>0.9970365952421013</v>
+        <v>0.9900494840197238</v>
       </c>
       <c r="J12">
-        <v>0.9970365952421013</v>
+        <v>0.9900494840197238</v>
       </c>
       <c r="K12">
-        <v>0.9970365952421013</v>
+        <v>0.9900494840197238</v>
       </c>
       <c r="L12">
-        <v>0.9970365952421013</v>
+        <v>0.9900494840197238</v>
       </c>
       <c r="M12">
-        <v>1.004445111615789</v>
+        <v>1.014925785465603</v>
       </c>
       <c r="N12">
-        <v>1.004445111615789</v>
+        <v>1.014925785465603</v>
       </c>
       <c r="O12">
-        <v>1.005136572035087</v>
+        <v>1.017247569241402</v>
       </c>
       <c r="P12">
-        <v>1.001975606157893</v>
+        <v>1.006633684983643</v>
       </c>
       <c r="Q12">
-        <v>1.001975606157893</v>
+        <v>1.006633684983643</v>
       </c>
       <c r="R12">
-        <v>1.000740853428945</v>
+        <v>1.002487634742663</v>
       </c>
       <c r="S12">
-        <v>1.000740853428945</v>
+        <v>1.002487634742663</v>
       </c>
       <c r="T12">
-        <v>1.000263414868419</v>
+        <v>1.000884494076233</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9921719783099221</v>
+        <v>1.000970352907072</v>
       </c>
       <c r="D13">
-        <v>1.001957007557943</v>
+        <v>0.9997574155967349</v>
       </c>
       <c r="E13">
-        <v>0.9921719783099221</v>
+        <v>1.000970352907072</v>
       </c>
       <c r="F13">
-        <v>1.001957007557943</v>
+        <v>0.9997574155967349</v>
       </c>
       <c r="G13">
-        <v>0.9956945875163803</v>
+        <v>1.000533696614492</v>
       </c>
       <c r="H13">
-        <v>1.00521867911804</v>
+        <v>0.999353094347977</v>
       </c>
       <c r="I13">
-        <v>1.001957007557943</v>
+        <v>0.9997574155967349</v>
       </c>
       <c r="J13">
-        <v>1.001957007557943</v>
+        <v>0.9997574155967349</v>
       </c>
       <c r="K13">
-        <v>1.001957007557943</v>
+        <v>0.9997574155967349</v>
       </c>
       <c r="L13">
-        <v>1.001957007557943</v>
+        <v>0.9997574155967349</v>
       </c>
       <c r="M13">
-        <v>0.9970644929339326</v>
+        <v>1.000363884251904</v>
       </c>
       <c r="N13">
-        <v>0.9970644929339326</v>
+        <v>1.000363884251904</v>
       </c>
       <c r="O13">
-        <v>0.9966078577947485</v>
+        <v>1.000420488372766</v>
       </c>
       <c r="P13">
-        <v>0.9986953311419361</v>
+        <v>1.000161728033514</v>
       </c>
       <c r="Q13">
-        <v>0.9986953311419361</v>
+        <v>1.000161728033514</v>
       </c>
       <c r="R13">
-        <v>0.9995107502459378</v>
+        <v>1.000060649924319</v>
       </c>
       <c r="S13">
-        <v>0.9995107502459378</v>
+        <v>1.000060649924319</v>
       </c>
       <c r="T13">
-        <v>0.9998260446030285</v>
+        <v>1.000021565109958</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.068766400000001</v>
+        <v>1.011853627989476</v>
       </c>
       <c r="D14">
-        <v>0.9828084099999992</v>
+        <v>0.9970365952421013</v>
       </c>
       <c r="E14">
-        <v>1.068766400000001</v>
+        <v>1.011853627989476</v>
       </c>
       <c r="F14">
-        <v>0.9828084099999992</v>
+        <v>0.9970365952421013</v>
       </c>
       <c r="G14">
-        <v>1.037821500000001</v>
+        <v>1.006519492873684</v>
       </c>
       <c r="H14">
-        <v>0.9541557599999997</v>
+        <v>0.9920975826210511</v>
       </c>
       <c r="I14">
-        <v>0.9828084099999992</v>
+        <v>0.9970365952421013</v>
       </c>
       <c r="J14">
-        <v>0.9828084099999992</v>
+        <v>0.9970365952421013</v>
       </c>
       <c r="K14">
-        <v>0.9828084099999992</v>
+        <v>0.9970365952421013</v>
       </c>
       <c r="L14">
-        <v>0.9828084099999992</v>
+        <v>0.9970365952421013</v>
       </c>
       <c r="M14">
-        <v>1.025787405</v>
+        <v>1.004445111615789</v>
       </c>
       <c r="N14">
-        <v>1.025787405</v>
+        <v>1.004445111615789</v>
       </c>
       <c r="O14">
-        <v>1.02979877</v>
+        <v>1.005136572035087</v>
       </c>
       <c r="P14">
-        <v>1.011461073333333</v>
+        <v>1.001975606157893</v>
       </c>
       <c r="Q14">
-        <v>1.011461073333333</v>
+        <v>1.001975606157893</v>
       </c>
       <c r="R14">
-        <v>1.0042979075</v>
+        <v>1.000740853428945</v>
       </c>
       <c r="S14">
-        <v>1.0042979075</v>
+        <v>1.000740853428945</v>
       </c>
       <c r="T14">
-        <v>1.001528148333333</v>
+        <v>1.000263414868419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.98280841</v>
+        <v>0.9921719783099221</v>
       </c>
       <c r="D15">
-        <v>1.0042979</v>
+        <v>1.001957007557943</v>
       </c>
       <c r="E15">
-        <v>0.98280841</v>
+        <v>0.9921719783099221</v>
       </c>
       <c r="F15">
-        <v>1.0042979</v>
+        <v>1.001957007557943</v>
       </c>
       <c r="G15">
-        <v>0.99054463</v>
+        <v>0.9956945875163803</v>
       </c>
       <c r="H15">
-        <v>1.0114611</v>
+        <v>1.00521867911804</v>
       </c>
       <c r="I15">
-        <v>1.0042979</v>
+        <v>1.001957007557943</v>
       </c>
       <c r="J15">
-        <v>1.0042979</v>
+        <v>1.001957007557943</v>
       </c>
       <c r="K15">
-        <v>1.0042979</v>
+        <v>1.001957007557943</v>
       </c>
       <c r="L15">
-        <v>1.0042979</v>
+        <v>1.001957007557943</v>
       </c>
       <c r="M15">
-        <v>0.9935531550000001</v>
+        <v>0.9970644929339326</v>
       </c>
       <c r="N15">
-        <v>0.9935531550000001</v>
+        <v>0.9970644929339326</v>
       </c>
       <c r="O15">
-        <v>0.9925503133333334</v>
+        <v>0.9966078577947485</v>
       </c>
       <c r="P15">
-        <v>0.9971347366666667</v>
+        <v>0.9986953311419361</v>
       </c>
       <c r="Q15">
-        <v>0.9971347366666667</v>
+        <v>0.9986953311419361</v>
       </c>
       <c r="R15">
-        <v>0.9989255275000001</v>
+        <v>0.9995107502459378</v>
       </c>
       <c r="S15">
-        <v>0.9989255275000001</v>
+        <v>0.9995107502459378</v>
       </c>
       <c r="T15">
-        <v>0.9996179733333334</v>
+        <v>0.9998260446030285</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.98280841</v>
+        <v>1.068766400000001</v>
       </c>
       <c r="D16">
-        <v>1.0042979</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="E16">
-        <v>0.98280841</v>
+        <v>1.068766400000001</v>
       </c>
       <c r="F16">
-        <v>1.0042979</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="G16">
-        <v>0.99054463</v>
+        <v>1.037821500000001</v>
       </c>
       <c r="H16">
-        <v>1.0114611</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="I16">
-        <v>1.0042979</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="J16">
-        <v>1.0042979</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="K16">
-        <v>1.0042979</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="L16">
-        <v>1.0042979</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="M16">
-        <v>0.9935531550000001</v>
+        <v>1.025787405</v>
       </c>
       <c r="N16">
-        <v>0.9935531550000001</v>
+        <v>1.025787405</v>
       </c>
       <c r="O16">
-        <v>0.9925503133333334</v>
+        <v>1.02979877</v>
       </c>
       <c r="P16">
-        <v>0.9971347366666667</v>
+        <v>1.011461073333333</v>
       </c>
       <c r="Q16">
-        <v>0.9971347366666667</v>
+        <v>1.011461073333333</v>
       </c>
       <c r="R16">
-        <v>0.9989255275000001</v>
+        <v>1.0042979075</v>
       </c>
       <c r="S16">
-        <v>0.9989255275000001</v>
+        <v>1.0042979075</v>
       </c>
       <c r="T16">
-        <v>0.9996179733333334</v>
+        <v>1.001528148333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9559465499999998</v>
+        <v>0.98280841</v>
       </c>
       <c r="D17">
-        <v>1.0110134</v>
+        <v>1.0042979</v>
       </c>
       <c r="E17">
-        <v>0.9559465499999998</v>
+        <v>0.98280841</v>
       </c>
       <c r="F17">
-        <v>1.0110134</v>
+        <v>1.0042979</v>
       </c>
       <c r="G17">
-        <v>0.9757706</v>
+        <v>0.99054463</v>
       </c>
       <c r="H17">
-        <v>1.029369</v>
+        <v>1.0114611</v>
       </c>
       <c r="I17">
-        <v>1.0110134</v>
+        <v>1.0042979</v>
       </c>
       <c r="J17">
-        <v>1.0110134</v>
+        <v>1.0042979</v>
       </c>
       <c r="K17">
-        <v>1.0110134</v>
+        <v>1.0042979</v>
       </c>
       <c r="L17">
-        <v>1.0110134</v>
+        <v>1.0042979</v>
       </c>
       <c r="M17">
-        <v>0.9834799749999998</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N17">
-        <v>0.9834799749999998</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O17">
-        <v>0.9809101833333332</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P17">
-        <v>0.9926577833333332</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q17">
-        <v>0.9926577833333332</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R17">
-        <v>0.9972466874999999</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S17">
-        <v>0.9972466874999999</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T17">
-        <v>0.9990210583333333</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.025198640684932</v>
+        <v>0.98280841</v>
       </c>
       <c r="D18">
-        <v>0.9937003410958907</v>
+        <v>1.0042979</v>
       </c>
       <c r="E18">
-        <v>1.025198640684932</v>
+        <v>0.98280841</v>
       </c>
       <c r="F18">
-        <v>0.9937003410958907</v>
+        <v>1.0042979</v>
       </c>
       <c r="G18">
-        <v>1.013859245342465</v>
+        <v>0.99054463</v>
       </c>
       <c r="H18">
-        <v>0.9832009115068501</v>
+        <v>1.0114611</v>
       </c>
       <c r="I18">
-        <v>0.9937003410958907</v>
+        <v>1.0042979</v>
       </c>
       <c r="J18">
-        <v>0.9937003410958907</v>
+        <v>1.0042979</v>
       </c>
       <c r="K18">
-        <v>0.9937003410958907</v>
+        <v>1.0042979</v>
       </c>
       <c r="L18">
-        <v>0.9937003410958907</v>
+        <v>1.0042979</v>
       </c>
       <c r="M18">
-        <v>1.009449490890411</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N18">
-        <v>1.009449490890411</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O18">
-        <v>1.010919409041096</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P18">
-        <v>1.004199774292238</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q18">
-        <v>1.004199774292238</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R18">
-        <v>1.001574915993151</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S18">
-        <v>1.001574915993151</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T18">
-        <v>1.000559970136986</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9952496973684211</v>
+        <v>0.9559465499999998</v>
       </c>
       <c r="D19">
-        <v>1.001187588947368</v>
+        <v>1.0110134</v>
       </c>
       <c r="E19">
-        <v>0.9952496973684211</v>
+        <v>0.9559465499999998</v>
       </c>
       <c r="F19">
-        <v>1.001187588947368</v>
+        <v>1.0110134</v>
       </c>
       <c r="G19">
-        <v>0.9973873331578946</v>
+        <v>0.9757706</v>
       </c>
       <c r="H19">
-        <v>1.003166876315789</v>
+        <v>1.029369</v>
       </c>
       <c r="I19">
-        <v>1.001187588947368</v>
+        <v>1.0110134</v>
       </c>
       <c r="J19">
-        <v>1.001187588947368</v>
+        <v>1.0110134</v>
       </c>
       <c r="K19">
-        <v>1.001187588947368</v>
+        <v>1.0110134</v>
       </c>
       <c r="L19">
-        <v>1.001187588947368</v>
+        <v>1.0110134</v>
       </c>
       <c r="M19">
-        <v>0.9982186431578947</v>
+        <v>0.9834799749999998</v>
       </c>
       <c r="N19">
-        <v>0.9982186431578947</v>
+        <v>0.9834799749999998</v>
       </c>
       <c r="O19">
-        <v>0.9979415398245614</v>
+        <v>0.9809101833333332</v>
       </c>
       <c r="P19">
-        <v>0.9992082917543859</v>
+        <v>0.9926577833333332</v>
       </c>
       <c r="Q19">
-        <v>0.9992082917543859</v>
+        <v>0.9926577833333332</v>
       </c>
       <c r="R19">
-        <v>0.9997031160526315</v>
+        <v>0.9972466874999999</v>
       </c>
       <c r="S19">
-        <v>0.9997031160526315</v>
+        <v>0.9972466874999999</v>
       </c>
       <c r="T19">
-        <v>0.9998944456140348</v>
+        <v>0.9990210583333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9952496973684211</v>
+        <v>1.025198640684932</v>
       </c>
       <c r="D20">
-        <v>1.001187588947368</v>
+        <v>0.9937003410958907</v>
       </c>
       <c r="E20">
-        <v>0.9952496973684211</v>
+        <v>1.025198640684932</v>
       </c>
       <c r="F20">
-        <v>1.001187588947368</v>
+        <v>0.9937003410958907</v>
       </c>
       <c r="G20">
-        <v>0.9973873331578946</v>
+        <v>1.013859245342465</v>
       </c>
       <c r="H20">
-        <v>1.003166876315789</v>
+        <v>0.9832009115068501</v>
       </c>
       <c r="I20">
-        <v>1.001187588947368</v>
+        <v>0.9937003410958907</v>
       </c>
       <c r="J20">
-        <v>1.001187588947368</v>
+        <v>0.9937003410958907</v>
       </c>
       <c r="K20">
-        <v>1.001187588947368</v>
+        <v>0.9937003410958907</v>
       </c>
       <c r="L20">
-        <v>1.001187588947368</v>
+        <v>0.9937003410958907</v>
       </c>
       <c r="M20">
-        <v>0.9982186431578947</v>
+        <v>1.009449490890411</v>
       </c>
       <c r="N20">
-        <v>0.9982186431578947</v>
+        <v>1.009449490890411</v>
       </c>
       <c r="O20">
-        <v>0.9979415398245614</v>
+        <v>1.010919409041096</v>
       </c>
       <c r="P20">
-        <v>0.9992082917543859</v>
+        <v>1.004199774292238</v>
       </c>
       <c r="Q20">
-        <v>0.9992082917543859</v>
+        <v>1.004199774292238</v>
       </c>
       <c r="R20">
-        <v>0.9997031160526315</v>
+        <v>1.001574915993151</v>
       </c>
       <c r="S20">
-        <v>0.9997031160526315</v>
+        <v>1.001574915993151</v>
       </c>
       <c r="T20">
-        <v>0.9998944456140348</v>
+        <v>1.000559970136986</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9873439627911561</v>
+        <v>0.9952496973684211</v>
       </c>
       <c r="D21">
-        <v>1.003164008499625</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="E21">
-        <v>0.9873439627911561</v>
+        <v>0.9952496973684211</v>
       </c>
       <c r="F21">
-        <v>1.003164008499625</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="G21">
-        <v>0.993039178010384</v>
+        <v>0.9973873331578946</v>
       </c>
       <c r="H21">
-        <v>1.00843735622691</v>
+        <v>1.003166876315789</v>
       </c>
       <c r="I21">
-        <v>1.003164008499625</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="J21">
-        <v>1.003164008499625</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="K21">
-        <v>1.003164008499625</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="L21">
-        <v>1.003164008499625</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="M21">
-        <v>0.9952539856453908</v>
+        <v>0.9982186431578947</v>
       </c>
       <c r="N21">
-        <v>0.9952539856453908</v>
+        <v>0.9982186431578947</v>
       </c>
       <c r="O21">
-        <v>0.9945157164337219</v>
+        <v>0.9979415398245614</v>
       </c>
       <c r="P21">
-        <v>0.9978906599301357</v>
+        <v>0.9992082917543859</v>
       </c>
       <c r="Q21">
-        <v>0.9978906599301357</v>
+        <v>0.9992082917543859</v>
       </c>
       <c r="R21">
-        <v>0.9992089970725081</v>
+        <v>0.9997031160526315</v>
       </c>
       <c r="S21">
-        <v>0.9992089970725081</v>
+        <v>0.9997031160526315</v>
       </c>
       <c r="T21">
-        <v>0.9997187537545544</v>
+        <v>0.9998944456140348</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9967239804633086</v>
+        <v>0.9952496973684211</v>
       </c>
       <c r="D22">
-        <v>1.000819011752151</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="E22">
-        <v>0.9967239804633086</v>
+        <v>0.9952496973684211</v>
       </c>
       <c r="F22">
-        <v>1.000819011752151</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="G22">
-        <v>0.9981981847890377</v>
+        <v>0.9973873331578946</v>
       </c>
       <c r="H22">
-        <v>1.002184013118497</v>
+        <v>1.003166876315789</v>
       </c>
       <c r="I22">
-        <v>1.000819011752151</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="J22">
-        <v>1.000819011752151</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="K22">
-        <v>1.000819011752151</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="L22">
-        <v>1.000819011752151</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="M22">
-        <v>0.9987714961077296</v>
+        <v>0.9982186431578947</v>
       </c>
       <c r="N22">
-        <v>0.9987714961077296</v>
+        <v>0.9982186431578947</v>
       </c>
       <c r="O22">
-        <v>0.9985803923348323</v>
+        <v>0.9979415398245614</v>
       </c>
       <c r="P22">
-        <v>0.9994540013225367</v>
+        <v>0.9992082917543859</v>
       </c>
       <c r="Q22">
-        <v>0.9994540013225367</v>
+        <v>0.9992082917543859</v>
       </c>
       <c r="R22">
-        <v>0.9997952539299402</v>
+        <v>0.9997031160526315</v>
       </c>
       <c r="S22">
-        <v>0.9997952539299402</v>
+        <v>0.9997031160526315</v>
       </c>
       <c r="T22">
-        <v>0.9999272022712159</v>
+        <v>0.9998944456140348</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.994632711958307</v>
+        <v>0.9873439627911561</v>
       </c>
       <c r="D23">
-        <v>1.00134182536628</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="E23">
-        <v>0.994632711958307</v>
+        <v>0.9873439627911561</v>
       </c>
       <c r="F23">
-        <v>1.00134182536628</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="G23">
-        <v>0.9970479963749214</v>
+        <v>0.993039178010384</v>
       </c>
       <c r="H23">
-        <v>1.0035781878889</v>
+        <v>1.00843735622691</v>
       </c>
       <c r="I23">
-        <v>1.00134182536628</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="J23">
-        <v>1.00134182536628</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="K23">
-        <v>1.00134182536628</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="L23">
-        <v>1.00134182536628</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="M23">
-        <v>0.9979872686622937</v>
+        <v>0.9952539856453908</v>
       </c>
       <c r="N23">
-        <v>0.9979872686622937</v>
+        <v>0.9952539856453908</v>
       </c>
       <c r="O23">
-        <v>0.9976741778998363</v>
+        <v>0.9945157164337219</v>
       </c>
       <c r="P23">
-        <v>0.9991054542302892</v>
+        <v>0.9978906599301357</v>
       </c>
       <c r="Q23">
-        <v>0.9991054542302892</v>
+        <v>0.9978906599301357</v>
       </c>
       <c r="R23">
-        <v>0.999664547014287</v>
+        <v>0.9992089970725081</v>
       </c>
       <c r="S23">
-        <v>0.999664547014287</v>
+        <v>0.9992089970725081</v>
       </c>
       <c r="T23">
-        <v>0.9998807287201616</v>
+        <v>0.9997187537545544</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9986226192190829</v>
+        <v>0.9967239804633086</v>
       </c>
       <c r="D24">
-        <v>1.000344344972705</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="E24">
-        <v>0.9986226192190829</v>
+        <v>0.9967239804633086</v>
       </c>
       <c r="F24">
-        <v>1.000344344972705</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="G24">
-        <v>0.9992424376947757</v>
+        <v>0.9981981847890377</v>
       </c>
       <c r="H24">
-        <v>1.000918247480899</v>
+        <v>1.002184013118497</v>
       </c>
       <c r="I24">
-        <v>1.000344344972705</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="J24">
-        <v>1.000344344972705</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="K24">
-        <v>1.000344344972705</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="L24">
-        <v>1.000344344972705</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="M24">
-        <v>0.9994834820958938</v>
+        <v>0.9987714961077296</v>
       </c>
       <c r="N24">
-        <v>0.9994834820958938</v>
+        <v>0.9987714961077296</v>
       </c>
       <c r="O24">
-        <v>0.9994031339621877</v>
+        <v>0.9985803923348323</v>
       </c>
       <c r="P24">
-        <v>0.9997704363881641</v>
+        <v>0.9994540013225367</v>
       </c>
       <c r="Q24">
-        <v>0.9997704363881641</v>
+        <v>0.9994540013225367</v>
       </c>
       <c r="R24">
-        <v>0.9999139135342993</v>
+        <v>0.9997952539299402</v>
       </c>
       <c r="S24">
-        <v>0.9999139135342993</v>
+        <v>0.9997952539299402</v>
       </c>
       <c r="T24">
-        <v>0.9999693898854787</v>
+        <v>0.9999272022712159</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9873439627911561</v>
+        <v>0.994632711958307</v>
       </c>
       <c r="D25">
-        <v>1.003164008499625</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="E25">
-        <v>0.9873439627911561</v>
+        <v>0.994632711958307</v>
       </c>
       <c r="F25">
-        <v>1.003164008499625</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="G25">
-        <v>0.9930391780103842</v>
+        <v>0.9970479963749214</v>
       </c>
       <c r="H25">
-        <v>1.00843735622691</v>
+        <v>1.0035781878889</v>
       </c>
       <c r="I25">
-        <v>1.003164008499625</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="J25">
-        <v>1.003164008499625</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="K25">
-        <v>1.003164008499625</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="L25">
-        <v>1.003164008499625</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="M25">
-        <v>0.9952539856453908</v>
+        <v>0.9979872686622937</v>
       </c>
       <c r="N25">
-        <v>0.9952539856453908</v>
+        <v>0.9979872686622937</v>
       </c>
       <c r="O25">
-        <v>0.9945157164337219</v>
+        <v>0.9976741778998363</v>
       </c>
       <c r="P25">
-        <v>0.9978906599301357</v>
+        <v>0.9991054542302892</v>
       </c>
       <c r="Q25">
-        <v>0.9978906599301357</v>
+        <v>0.9991054542302892</v>
       </c>
       <c r="R25">
-        <v>0.9992089970725081</v>
+        <v>0.999664547014287</v>
       </c>
       <c r="S25">
-        <v>0.9992089970725081</v>
+        <v>0.999664547014287</v>
       </c>
       <c r="T25">
-        <v>0.9997187537545544</v>
+        <v>0.9998807287201616</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9967239804633086</v>
+        <v>0.9986226192190829</v>
       </c>
       <c r="D26">
-        <v>1.000819011752151</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="E26">
-        <v>0.9967239804633086</v>
+        <v>0.9986226192190829</v>
       </c>
       <c r="F26">
-        <v>1.000819011752151</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="G26">
-        <v>0.9981981847890377</v>
+        <v>0.9992424376947757</v>
       </c>
       <c r="H26">
-        <v>1.002184013118497</v>
+        <v>1.000918247480899</v>
       </c>
       <c r="I26">
-        <v>1.000819011752151</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="J26">
-        <v>1.000819011752151</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="K26">
-        <v>1.000819011752151</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="L26">
-        <v>1.000819011752151</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="M26">
-        <v>0.9987714961077296</v>
+        <v>0.9994834820958938</v>
       </c>
       <c r="N26">
-        <v>0.9987714961077296</v>
+        <v>0.9994834820958938</v>
       </c>
       <c r="O26">
-        <v>0.9985803923348323</v>
+        <v>0.9994031339621877</v>
       </c>
       <c r="P26">
-        <v>0.9994540013225367</v>
+        <v>0.9997704363881641</v>
       </c>
       <c r="Q26">
-        <v>0.9994540013225367</v>
+        <v>0.9997704363881641</v>
       </c>
       <c r="R26">
-        <v>0.9997952539299402</v>
+        <v>0.9999139135342993</v>
       </c>
       <c r="S26">
-        <v>0.9997952539299402</v>
+        <v>0.9999139135342993</v>
       </c>
       <c r="T26">
-        <v>0.9999272022712159</v>
+        <v>0.9999693898854787</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.004098485138982</v>
+        <v>0.9873439627911561</v>
       </c>
       <c r="D27">
-        <v>0.9989753743605645</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="E27">
-        <v>1.004098485138982</v>
+        <v>0.9873439627911561</v>
       </c>
       <c r="F27">
-        <v>0.9989753743605645</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="G27">
-        <v>1.002254149731226</v>
+        <v>0.9930391780103842</v>
       </c>
       <c r="H27">
-        <v>0.9972676747452834</v>
+        <v>1.00843735622691</v>
       </c>
       <c r="I27">
-        <v>0.9989753743605645</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="J27">
-        <v>0.9989753743605645</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="K27">
-        <v>0.9989753743605645</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="L27">
-        <v>0.9989753743605645</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="M27">
-        <v>1.001536929749773</v>
+        <v>0.9952539856453908</v>
       </c>
       <c r="N27">
-        <v>1.001536929749773</v>
+        <v>0.9952539856453908</v>
       </c>
       <c r="O27">
-        <v>1.001776003076924</v>
+        <v>0.9945157164337219</v>
       </c>
       <c r="P27">
-        <v>1.00068307795337</v>
+        <v>0.9978906599301357</v>
       </c>
       <c r="Q27">
-        <v>1.00068307795337</v>
+        <v>0.9978906599301357</v>
       </c>
       <c r="R27">
-        <v>1.000256152055169</v>
+        <v>0.9992089970725081</v>
       </c>
       <c r="S27">
-        <v>1.000256152055169</v>
+        <v>0.9992089970725081</v>
       </c>
       <c r="T27">
-        <v>1.000091072116198</v>
+        <v>0.9997187537545544</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9965993850692688</v>
+        <v>0.9967239804633086</v>
       </c>
       <c r="D28">
-        <v>1.000850151534649</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="E28">
-        <v>0.9965993850692688</v>
+        <v>0.9967239804633086</v>
       </c>
       <c r="F28">
-        <v>1.000850151534649</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="G28">
-        <v>0.9981296523092352</v>
+        <v>0.9981981847890377</v>
       </c>
       <c r="H28">
-        <v>1.002267075518725</v>
+        <v>1.002184013118497</v>
       </c>
       <c r="I28">
-        <v>1.000850151534649</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="J28">
-        <v>1.000850151534649</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="K28">
-        <v>1.000850151534649</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="L28">
-        <v>1.000850151534649</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="M28">
-        <v>0.9987247683019587</v>
+        <v>0.9987714961077296</v>
       </c>
       <c r="N28">
-        <v>0.9987247683019587</v>
+        <v>0.9987714961077296</v>
       </c>
       <c r="O28">
-        <v>0.9985263963043841</v>
+        <v>0.9985803923348323</v>
       </c>
       <c r="P28">
-        <v>0.9994332293795219</v>
+        <v>0.9994540013225367</v>
       </c>
       <c r="Q28">
-        <v>0.9994332293795219</v>
+        <v>0.9994540013225367</v>
       </c>
       <c r="R28">
-        <v>0.9997874599183036</v>
+        <v>0.9997952539299402</v>
       </c>
       <c r="S28">
-        <v>0.9997874599183036</v>
+        <v>0.9997952539299402</v>
       </c>
       <c r="T28">
-        <v>0.9999244279168624</v>
+        <v>0.9999272022712159</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.004098485138982</v>
+      </c>
+      <c r="D29">
+        <v>0.9989753743605645</v>
+      </c>
+      <c r="E29">
+        <v>1.004098485138982</v>
+      </c>
+      <c r="F29">
+        <v>0.9989753743605645</v>
+      </c>
+      <c r="G29">
+        <v>1.002254149731226</v>
+      </c>
+      <c r="H29">
+        <v>0.9972676747452834</v>
+      </c>
+      <c r="I29">
+        <v>0.9989753743605645</v>
+      </c>
+      <c r="J29">
+        <v>0.9989753743605645</v>
+      </c>
+      <c r="K29">
+        <v>0.9989753743605645</v>
+      </c>
+      <c r="L29">
+        <v>0.9989753743605645</v>
+      </c>
+      <c r="M29">
+        <v>1.001536929749773</v>
+      </c>
+      <c r="N29">
+        <v>1.001536929749773</v>
+      </c>
+      <c r="O29">
+        <v>1.001776003076924</v>
+      </c>
+      <c r="P29">
+        <v>1.00068307795337</v>
+      </c>
+      <c r="Q29">
+        <v>1.00068307795337</v>
+      </c>
+      <c r="R29">
+        <v>1.000256152055169</v>
+      </c>
+      <c r="S29">
+        <v>1.000256152055169</v>
+      </c>
+      <c r="T29">
+        <v>1.000091072116198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9965993850692688</v>
+      </c>
+      <c r="D30">
+        <v>1.000850151534649</v>
+      </c>
+      <c r="E30">
+        <v>0.9965993850692688</v>
+      </c>
+      <c r="F30">
+        <v>1.000850151534649</v>
+      </c>
+      <c r="G30">
+        <v>0.9981296523092352</v>
+      </c>
+      <c r="H30">
+        <v>1.002267075518725</v>
+      </c>
+      <c r="I30">
+        <v>1.000850151534649</v>
+      </c>
+      <c r="J30">
+        <v>1.000850151534649</v>
+      </c>
+      <c r="K30">
+        <v>1.000850151534649</v>
+      </c>
+      <c r="L30">
+        <v>1.000850151534649</v>
+      </c>
+      <c r="M30">
+        <v>0.9987247683019587</v>
+      </c>
+      <c r="N30">
+        <v>0.9987247683019587</v>
+      </c>
+      <c r="O30">
+        <v>0.9985263963043841</v>
+      </c>
+      <c r="P30">
+        <v>0.9994332293795219</v>
+      </c>
+      <c r="Q30">
+        <v>0.9994332293795219</v>
+      </c>
+      <c r="R30">
+        <v>0.9997874599183036</v>
+      </c>
+      <c r="S30">
+        <v>0.9997874599183036</v>
+      </c>
+      <c r="T30">
+        <v>0.9999244279168624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.984126071295081</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.003968464835846</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.984126071295081</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.003968464835846</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9912693289189471</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.010582613846295</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.003968464835846</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.003968464835846</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.003968464835846</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.003968464835846</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9940472680654633</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9940472680654633</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9931212883499579</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9973543336555908</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9973543336555908</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9990078664506545</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9990078664506545</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9996472347613102</v>
       </c>
     </row>
